--- a/Oil price information/2556.xlsx
+++ b/Oil price information/2556.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptydvp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07693B7F-968F-584C-8C4C-CBE0621B6A3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A03822-A75E-4B05-B56E-8A4E3856D28D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{AE01BACC-D742-6B4E-AA39-DC40F97CACB1}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19464" xr2:uid="{AE01BACC-D742-6B4E-AA39-DC40F97CACB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2556" sheetId="1" r:id="rId1"/>
@@ -107,14 +107,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +126,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,6 +505,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,31 +845,31 @@
   <dimension ref="A1:N367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="27" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.453125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="27" customWidth="1"/>
+    <col min="4" max="5" width="13.6328125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1"/>
+    <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1"/>
+    <col min="11" max="11" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1">
+    <row r="1" spans="1:13" ht="15.6" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -868,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1">
+    <row r="2" spans="1:13" ht="19.05" customHeight="1">
       <c r="A2" s="2">
         <v>239601</v>
       </c>
@@ -897,7 +918,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="6">
         <v>239602</v>
       </c>
@@ -924,7 +945,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:13" ht="20" thickBot="1">
+    <row r="4" spans="1:13" ht="18" thickBot="1">
       <c r="A4" s="6">
         <v>239603</v>
       </c>
@@ -946,7 +967,7 @@
       <c r="G4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="19" customHeight="1">
+    <row r="5" spans="1:13" ht="19.05" customHeight="1">
       <c r="A5" s="6">
         <v>239604</v>
       </c>
@@ -975,7 +996,7 @@
       <c r="L5" s="40"/>
       <c r="M5" s="41"/>
     </row>
-    <row r="6" spans="1:13" ht="19" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.05" customHeight="1" thickBot="1">
       <c r="A6" s="6">
         <v>239605</v>
       </c>
@@ -1002,7 +1023,7 @@
       <c r="L6" s="43"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="7" spans="1:13" ht="20" thickBot="1">
+    <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" s="6">
         <v>239606</v>
       </c>
@@ -1025,7 +1046,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="20" thickBot="1">
+    <row r="8" spans="1:13" ht="18" thickBot="1">
       <c r="A8" s="6">
         <v>239607</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19">
+    <row r="9" spans="1:13" ht="17.399999999999999">
       <c r="A9" s="6">
         <v>239608</v>
       </c>
@@ -1087,28 +1108,28 @@
       <c r="H9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="45">
         <f>AVERAGE(B2:B32)</f>
         <v>35.396129032258074</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="46">
         <f t="shared" ref="J9:M9" si="0">AVERAGE(C2:C32)</f>
         <v>37.846129032258069</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="46">
         <f t="shared" si="0"/>
         <v>32.396129032258067</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="46">
         <f t="shared" si="0"/>
         <v>21.68967741935483</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="47">
         <f t="shared" si="0"/>
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19">
+    <row r="10" spans="1:13" ht="17.399999999999999">
       <c r="A10" s="6">
         <v>239609</v>
       </c>
@@ -1131,7 +1152,7 @@
       <c r="H10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="48">
         <f>AVERAGE(B33:B61)</f>
         <v>37.345517241379333</v>
       </c>
@@ -1147,12 +1168,12 @@
         <f t="shared" si="1"/>
         <v>22.897241379310337</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="49">
         <f t="shared" si="1"/>
         <v>29.948620689655176</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19">
+    <row r="11" spans="1:13" ht="17.399999999999999">
       <c r="A11" s="6">
         <v>239610</v>
       </c>
@@ -1175,7 +1196,7 @@
       <c r="H11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="48">
         <f>AVERAGE(B62:B92)</f>
         <v>37.157419354838716</v>
       </c>
@@ -1191,12 +1212,12 @@
         <f t="shared" si="2"/>
         <v>22.909032258064506</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="49">
         <f t="shared" si="2"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19">
+    <row r="12" spans="1:13" ht="17.399999999999999">
       <c r="A12" s="6">
         <v>239611</v>
       </c>
@@ -1219,7 +1240,7 @@
       <c r="H12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="48">
         <f>AVERAGE(B93:B122)</f>
         <v>35.356666666666648</v>
       </c>
@@ -1235,12 +1256,12 @@
         <f t="shared" si="3"/>
         <v>21.883333333333329</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="49">
         <f t="shared" si="3"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19">
+    <row r="13" spans="1:13" ht="17.399999999999999">
       <c r="A13" s="6">
         <v>239612</v>
       </c>
@@ -1263,7 +1284,7 @@
       <c r="H13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="48">
         <f>AVERAGE(B123:B153)</f>
         <v>35.118709677419368</v>
       </c>
@@ -1279,12 +1300,12 @@
         <f t="shared" si="4"/>
         <v>21.818709677419335</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="49">
         <f t="shared" si="4"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19">
+    <row r="14" spans="1:13" ht="17.399999999999999">
       <c r="A14" s="6">
         <v>239613</v>
       </c>
@@ -1307,7 +1328,7 @@
       <c r="H14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="48">
         <f>AVERAGE(B154:B183)</f>
         <v>36.199999999999982</v>
       </c>
@@ -1323,12 +1344,12 @@
         <f t="shared" si="5"/>
         <v>22.659999999999993</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="49">
         <f t="shared" si="5"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19">
+    <row r="15" spans="1:13" ht="17.399999999999999">
       <c r="A15" s="6">
         <v>239614</v>
       </c>
@@ -1351,7 +1372,7 @@
       <c r="H15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="48">
         <f>AVERAGE(B184:B214)</f>
         <v>37.618709677419375</v>
       </c>
@@ -1367,12 +1388,12 @@
         <f t="shared" si="6"/>
         <v>23.567096774193548</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="49">
         <f t="shared" si="6"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19">
+    <row r="16" spans="1:13" ht="17.399999999999999">
       <c r="A16" s="6">
         <v>239615</v>
       </c>
@@ -1395,7 +1416,7 @@
       <c r="H16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="48">
         <f>AVERAGE(B215:B245)</f>
         <v>36.986451612903231</v>
       </c>
@@ -1411,12 +1432,12 @@
         <f t="shared" si="7"/>
         <v>23.192903225806443</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="49">
         <f t="shared" si="7"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19">
+    <row r="17" spans="1:14" ht="17.399999999999999">
       <c r="A17" s="6">
         <v>239616</v>
       </c>
@@ -1439,7 +1460,7 @@
       <c r="H17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="48">
         <f>AVERAGE(B246:B275)</f>
         <v>36.853333333333332</v>
       </c>
@@ -1455,12 +1476,12 @@
         <f t="shared" si="8"/>
         <v>23.27</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="49">
         <f t="shared" si="8"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19">
+    <row r="18" spans="1:14" ht="17.399999999999999">
       <c r="A18" s="6">
         <v>239617</v>
       </c>
@@ -1483,7 +1504,7 @@
       <c r="H18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="48">
         <f>AVERAGE(B276:B306)</f>
         <v>36.115483870967736</v>
       </c>
@@ -1499,12 +1520,12 @@
         <f t="shared" si="9"/>
         <v>22.980000000000008</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="49">
         <f t="shared" si="9"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="19">
+    <row r="19" spans="1:14" ht="17.399999999999999">
       <c r="A19" s="6">
         <v>239618</v>
       </c>
@@ -1527,7 +1548,7 @@
       <c r="H19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="48">
         <f>AVERAGE(B307:B336)</f>
         <v>36.330000000000013</v>
       </c>
@@ -1543,12 +1564,12 @@
         <f t="shared" si="10"/>
         <v>23.190000000000005</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="49">
         <f t="shared" si="10"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20" thickBot="1">
+    <row r="20" spans="1:14" ht="18" thickBot="1">
       <c r="A20" s="6">
         <v>239619</v>
       </c>
@@ -1571,7 +1592,7 @@
       <c r="H20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="50">
         <f>AVERAGE(B337:B367)</f>
         <v>37.292903225806455</v>
       </c>
@@ -1587,12 +1608,12 @@
         <f t="shared" si="11"/>
         <v>23.776774193548373</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="51">
         <f t="shared" si="11"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20" thickBot="1">
+    <row r="21" spans="1:14" ht="18" thickBot="1">
       <c r="A21" s="6">
         <v>239620</v>
       </c>
@@ -1615,7 +1636,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="19">
+    <row r="22" spans="1:14" ht="17.399999999999999">
       <c r="A22" s="6">
         <v>239621</v>
       </c>
@@ -1644,7 +1665,7 @@
       <c r="L22" s="40"/>
       <c r="M22" s="41"/>
     </row>
-    <row r="23" spans="1:14" ht="20" thickBot="1">
+    <row r="23" spans="1:14" ht="18" thickBot="1">
       <c r="A23" s="6">
         <v>239622</v>
       </c>
@@ -1671,7 +1692,7 @@
       <c r="L23" s="43"/>
       <c r="M23" s="44"/>
     </row>
-    <row r="24" spans="1:14" ht="20" thickBot="1">
+    <row r="24" spans="1:14" ht="18" thickBot="1">
       <c r="A24" s="6">
         <v>239623</v>
       </c>
@@ -1692,7 +1713,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:14" ht="20" thickBot="1">
+    <row r="25" spans="1:14" ht="18" thickBot="1">
       <c r="A25" s="6">
         <v>239624</v>
       </c>
@@ -1731,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" thickBot="1">
+    <row r="26" spans="1:14" ht="18" thickBot="1">
       <c r="A26" s="6">
         <v>239625</v>
       </c>
@@ -1775,7 +1796,7 @@
         <v>29.96978142076485</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19">
+    <row r="27" spans="1:14" ht="17.399999999999999">
       <c r="A27" s="6">
         <v>239626</v>
       </c>
@@ -1798,7 +1819,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:14" ht="19">
+    <row r="28" spans="1:14" ht="17.399999999999999">
       <c r="A28" s="6">
         <v>239627</v>
       </c>
@@ -1821,7 +1842,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="19">
+    <row r="29" spans="1:14" ht="17.399999999999999">
       <c r="A29" s="6">
         <v>239628</v>
       </c>
@@ -1849,7 +1870,7 @@
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
     </row>
-    <row r="30" spans="1:14" ht="19">
+    <row r="30" spans="1:14" ht="17.399999999999999">
       <c r="A30" s="6">
         <v>239629</v>
       </c>
@@ -1877,7 +1898,7 @@
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
     </row>
-    <row r="31" spans="1:14" ht="19">
+    <row r="31" spans="1:14" ht="17.399999999999999">
       <c r="A31" s="6">
         <v>239630</v>
       </c>
@@ -1905,7 +1926,7 @@
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
     </row>
-    <row r="32" spans="1:14" ht="20" thickBot="1">
+    <row r="32" spans="1:14" ht="18" thickBot="1">
       <c r="A32" s="24">
         <v>239631</v>
       </c>
@@ -1933,7 +1954,7 @@
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
     </row>
-    <row r="33" spans="1:14" ht="19">
+    <row r="33" spans="1:14" ht="17.399999999999999">
       <c r="A33" s="2">
         <v>239632</v>
       </c>
@@ -1961,7 +1982,7 @@
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
     </row>
-    <row r="34" spans="1:14" ht="19">
+    <row r="34" spans="1:14" ht="17.399999999999999">
       <c r="A34" s="6">
         <v>239633</v>
       </c>
@@ -1989,7 +2010,7 @@
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
     </row>
-    <row r="35" spans="1:14" ht="19">
+    <row r="35" spans="1:14" ht="17.399999999999999">
       <c r="A35" s="6">
         <v>239634</v>
       </c>
@@ -2017,7 +2038,7 @@
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
     </row>
-    <row r="36" spans="1:14" ht="19">
+    <row r="36" spans="1:14" ht="17.399999999999999">
       <c r="A36" s="6">
         <v>239635</v>
       </c>
@@ -2045,7 +2066,7 @@
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
     </row>
-    <row r="37" spans="1:14" ht="19">
+    <row r="37" spans="1:14" ht="17.399999999999999">
       <c r="A37" s="6">
         <v>239636</v>
       </c>
@@ -2073,7 +2094,7 @@
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
     </row>
-    <row r="38" spans="1:14" ht="19">
+    <row r="38" spans="1:14" ht="17.399999999999999">
       <c r="A38" s="6">
         <v>239637</v>
       </c>
@@ -2101,7 +2122,7 @@
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
     </row>
-    <row r="39" spans="1:14" ht="19">
+    <row r="39" spans="1:14" ht="17.399999999999999">
       <c r="A39" s="6">
         <v>239638</v>
       </c>
@@ -2129,7 +2150,7 @@
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
     </row>
-    <row r="40" spans="1:14" ht="19">
+    <row r="40" spans="1:14" ht="17.399999999999999">
       <c r="A40" s="6">
         <v>239639</v>
       </c>
@@ -2157,7 +2178,7 @@
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
     </row>
-    <row r="41" spans="1:14" ht="19">
+    <row r="41" spans="1:14" ht="17.399999999999999">
       <c r="A41" s="6">
         <v>239640</v>
       </c>
@@ -2185,7 +2206,7 @@
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
     </row>
-    <row r="42" spans="1:14" ht="19">
+    <row r="42" spans="1:14" ht="17.399999999999999">
       <c r="A42" s="6">
         <v>239641</v>
       </c>
@@ -2207,7 +2228,7 @@
       <c r="G42" s="5"/>
       <c r="N42" s="29"/>
     </row>
-    <row r="43" spans="1:14" ht="19">
+    <row r="43" spans="1:14" ht="17.399999999999999">
       <c r="A43" s="6">
         <v>239642</v>
       </c>
@@ -2229,7 +2250,7 @@
       <c r="G43" s="5"/>
       <c r="N43" s="29"/>
     </row>
-    <row r="44" spans="1:14" ht="19">
+    <row r="44" spans="1:14" ht="17.399999999999999">
       <c r="A44" s="6">
         <v>239643</v>
       </c>
@@ -2251,7 +2272,7 @@
       <c r="G44" s="5"/>
       <c r="N44" s="29"/>
     </row>
-    <row r="45" spans="1:14" ht="19">
+    <row r="45" spans="1:14" ht="17.399999999999999">
       <c r="A45" s="6">
         <v>239644</v>
       </c>
@@ -2273,7 +2294,7 @@
       <c r="G45" s="5"/>
       <c r="N45" s="29"/>
     </row>
-    <row r="46" spans="1:14" ht="19">
+    <row r="46" spans="1:14" ht="17.399999999999999">
       <c r="A46" s="6">
         <v>239645</v>
       </c>
@@ -2295,7 +2316,7 @@
       <c r="G46" s="5"/>
       <c r="N46" s="29"/>
     </row>
-    <row r="47" spans="1:14" ht="19">
+    <row r="47" spans="1:14" ht="17.399999999999999">
       <c r="A47" s="6">
         <v>239646</v>
       </c>
@@ -2317,7 +2338,7 @@
       <c r="G47" s="5"/>
       <c r="N47" s="29"/>
     </row>
-    <row r="48" spans="1:14" ht="19">
+    <row r="48" spans="1:14" ht="17.399999999999999">
       <c r="A48" s="6">
         <v>239647</v>
       </c>
@@ -2339,7 +2360,7 @@
       <c r="G48" s="5"/>
       <c r="N48" s="29"/>
     </row>
-    <row r="49" spans="1:14" ht="19">
+    <row r="49" spans="1:14" ht="17.399999999999999">
       <c r="A49" s="6">
         <v>239648</v>
       </c>
@@ -2361,7 +2382,7 @@
       <c r="G49" s="5"/>
       <c r="N49" s="29"/>
     </row>
-    <row r="50" spans="1:14" ht="19">
+    <row r="50" spans="1:14" ht="17.399999999999999">
       <c r="A50" s="6">
         <v>239649</v>
       </c>
@@ -2383,7 +2404,7 @@
       <c r="G50" s="5"/>
       <c r="N50" s="29"/>
     </row>
-    <row r="51" spans="1:14" ht="19">
+    <row r="51" spans="1:14" ht="17.399999999999999">
       <c r="A51" s="6">
         <v>239650</v>
       </c>
@@ -2405,7 +2426,7 @@
       <c r="G51" s="5"/>
       <c r="N51" s="29"/>
     </row>
-    <row r="52" spans="1:14" ht="19">
+    <row r="52" spans="1:14" ht="17.399999999999999">
       <c r="A52" s="6">
         <v>239651</v>
       </c>
@@ -2427,7 +2448,7 @@
       <c r="G52" s="5"/>
       <c r="N52" s="29"/>
     </row>
-    <row r="53" spans="1:14" ht="19">
+    <row r="53" spans="1:14" ht="17.399999999999999">
       <c r="A53" s="6">
         <v>239652</v>
       </c>
@@ -2449,7 +2470,7 @@
       <c r="G53" s="5"/>
       <c r="N53" s="29"/>
     </row>
-    <row r="54" spans="1:14" ht="19">
+    <row r="54" spans="1:14" ht="17.399999999999999">
       <c r="A54" s="6">
         <v>239653</v>
       </c>
@@ -2471,7 +2492,7 @@
       <c r="G54" s="5"/>
       <c r="N54" s="29"/>
     </row>
-    <row r="55" spans="1:14" ht="19">
+    <row r="55" spans="1:14" ht="17.399999999999999">
       <c r="A55" s="6">
         <v>239654</v>
       </c>
@@ -2493,7 +2514,7 @@
       <c r="G55" s="5"/>
       <c r="N55" s="29"/>
     </row>
-    <row r="56" spans="1:14" ht="19">
+    <row r="56" spans="1:14" ht="17.399999999999999">
       <c r="A56" s="6">
         <v>239655</v>
       </c>
@@ -2515,7 +2536,7 @@
       <c r="G56" s="5"/>
       <c r="N56" s="29"/>
     </row>
-    <row r="57" spans="1:14" ht="19">
+    <row r="57" spans="1:14" ht="17.399999999999999">
       <c r="A57" s="6">
         <v>239656</v>
       </c>
@@ -2536,7 +2557,7 @@
       </c>
       <c r="N57" s="29"/>
     </row>
-    <row r="58" spans="1:14" ht="19">
+    <row r="58" spans="1:14" ht="17.399999999999999">
       <c r="A58" s="6">
         <v>239657</v>
       </c>
@@ -2557,7 +2578,7 @@
       </c>
       <c r="N58" s="29"/>
     </row>
-    <row r="59" spans="1:14" ht="19">
+    <row r="59" spans="1:14" ht="17.399999999999999">
       <c r="A59" s="6">
         <v>239658</v>
       </c>
@@ -2578,7 +2599,7 @@
       </c>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:14" ht="19">
+    <row r="60" spans="1:14" ht="17.399999999999999">
       <c r="A60" s="6">
         <v>239659</v>
       </c>
@@ -2599,7 +2620,7 @@
       </c>
       <c r="N60" s="29"/>
     </row>
-    <row r="61" spans="1:14" ht="20" thickBot="1">
+    <row r="61" spans="1:14" ht="18" thickBot="1">
       <c r="A61" s="24">
         <v>239660</v>
       </c>
@@ -2620,7 +2641,7 @@
       </c>
       <c r="N61" s="29"/>
     </row>
-    <row r="62" spans="1:14" ht="19">
+    <row r="62" spans="1:14" ht="17.399999999999999">
       <c r="A62" s="2">
         <v>239661</v>
       </c>
@@ -2641,7 +2662,7 @@
       </c>
       <c r="N62" s="29"/>
     </row>
-    <row r="63" spans="1:14" ht="19">
+    <row r="63" spans="1:14" ht="17.399999999999999">
       <c r="A63" s="6">
         <v>239662</v>
       </c>
@@ -2662,7 +2683,7 @@
       </c>
       <c r="N63" s="29"/>
     </row>
-    <row r="64" spans="1:14" ht="19">
+    <row r="64" spans="1:14" ht="17.399999999999999">
       <c r="A64" s="6">
         <v>239663</v>
       </c>
@@ -2683,7 +2704,7 @@
       </c>
       <c r="N64" s="29"/>
     </row>
-    <row r="65" spans="1:14" ht="19">
+    <row r="65" spans="1:14" ht="17.399999999999999">
       <c r="A65" s="6">
         <v>239664</v>
       </c>
@@ -2704,7 +2725,7 @@
       </c>
       <c r="N65" s="29"/>
     </row>
-    <row r="66" spans="1:14" ht="19">
+    <row r="66" spans="1:14" ht="17.399999999999999">
       <c r="A66" s="6">
         <v>239665</v>
       </c>
@@ -2725,7 +2746,7 @@
       </c>
       <c r="N66" s="29"/>
     </row>
-    <row r="67" spans="1:14" ht="19">
+    <row r="67" spans="1:14" ht="17.399999999999999">
       <c r="A67" s="6">
         <v>239666</v>
       </c>
@@ -2746,7 +2767,7 @@
       </c>
       <c r="N67" s="29"/>
     </row>
-    <row r="68" spans="1:14" ht="19">
+    <row r="68" spans="1:14" ht="17.399999999999999">
       <c r="A68" s="6">
         <v>239667</v>
       </c>
@@ -2767,7 +2788,7 @@
       </c>
       <c r="N68" s="29"/>
     </row>
-    <row r="69" spans="1:14" ht="19">
+    <row r="69" spans="1:14" ht="17.399999999999999">
       <c r="A69" s="6">
         <v>239668</v>
       </c>
@@ -2788,7 +2809,7 @@
       </c>
       <c r="N69" s="29"/>
     </row>
-    <row r="70" spans="1:14" ht="19">
+    <row r="70" spans="1:14" ht="17.399999999999999">
       <c r="A70" s="6">
         <v>239669</v>
       </c>
@@ -2809,7 +2830,7 @@
       </c>
       <c r="N70" s="29"/>
     </row>
-    <row r="71" spans="1:14" ht="19">
+    <row r="71" spans="1:14" ht="17.399999999999999">
       <c r="A71" s="6">
         <v>239670</v>
       </c>
@@ -2830,7 +2851,7 @@
       </c>
       <c r="N71" s="29"/>
     </row>
-    <row r="72" spans="1:14" ht="19">
+    <row r="72" spans="1:14" ht="17.399999999999999">
       <c r="A72" s="6">
         <v>239671</v>
       </c>
@@ -2851,7 +2872,7 @@
       </c>
       <c r="N72" s="29"/>
     </row>
-    <row r="73" spans="1:14" ht="19">
+    <row r="73" spans="1:14" ht="17.399999999999999">
       <c r="A73" s="6">
         <v>239672</v>
       </c>
@@ -2872,7 +2893,7 @@
       </c>
       <c r="N73" s="29"/>
     </row>
-    <row r="74" spans="1:14" ht="19">
+    <row r="74" spans="1:14" ht="17.399999999999999">
       <c r="A74" s="6">
         <v>239673</v>
       </c>
@@ -2892,7 +2913,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="19">
+    <row r="75" spans="1:14" ht="17.399999999999999">
       <c r="A75" s="6">
         <v>239674</v>
       </c>
@@ -2912,7 +2933,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="19">
+    <row r="76" spans="1:14" ht="17.399999999999999">
       <c r="A76" s="6">
         <v>239675</v>
       </c>
@@ -2932,7 +2953,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="19">
+    <row r="77" spans="1:14" ht="17.399999999999999">
       <c r="A77" s="6">
         <v>239676</v>
       </c>
@@ -2952,7 +2973,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="19">
+    <row r="78" spans="1:14" ht="17.399999999999999">
       <c r="A78" s="6">
         <v>239677</v>
       </c>
@@ -2972,7 +2993,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="19">
+    <row r="79" spans="1:14" ht="17.399999999999999">
       <c r="A79" s="6">
         <v>239678</v>
       </c>
@@ -2992,7 +3013,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="19">
+    <row r="80" spans="1:14" ht="17.399999999999999">
       <c r="A80" s="6">
         <v>239679</v>
       </c>
@@ -3012,7 +3033,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="19">
+    <row r="81" spans="1:8" ht="17.399999999999999">
       <c r="A81" s="6">
         <v>239680</v>
       </c>
@@ -3032,7 +3053,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="19">
+    <row r="82" spans="1:8" ht="17.399999999999999">
       <c r="A82" s="6">
         <v>239681</v>
       </c>
@@ -3052,7 +3073,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="19">
+    <row r="83" spans="1:8" ht="17.399999999999999">
       <c r="A83" s="6">
         <v>239682</v>
       </c>
@@ -3072,7 +3093,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="19">
+    <row r="84" spans="1:8" ht="17.399999999999999">
       <c r="A84" s="6">
         <v>239683</v>
       </c>
@@ -3092,7 +3113,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="19">
+    <row r="85" spans="1:8" ht="17.399999999999999">
       <c r="A85" s="6">
         <v>239684</v>
       </c>
@@ -3112,7 +3133,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="19">
+    <row r="86" spans="1:8" ht="17.399999999999999">
       <c r="A86" s="6">
         <v>239685</v>
       </c>
@@ -3132,7 +3153,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="19">
+    <row r="87" spans="1:8" ht="17.399999999999999">
       <c r="A87" s="6">
         <v>239686</v>
       </c>
@@ -3152,7 +3173,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="19">
+    <row r="88" spans="1:8" ht="17.399999999999999">
       <c r="A88" s="6">
         <v>239687</v>
       </c>
@@ -3172,7 +3193,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="19">
+    <row r="89" spans="1:8" ht="17.399999999999999">
       <c r="A89" s="6">
         <v>239688</v>
       </c>
@@ -3193,7 +3214,7 @@
       </c>
       <c r="H89" s="29"/>
     </row>
-    <row r="90" spans="1:8" ht="19">
+    <row r="90" spans="1:8" ht="17.399999999999999">
       <c r="A90" s="6">
         <v>239689</v>
       </c>
@@ -3214,7 +3235,7 @@
       </c>
       <c r="H90" s="29"/>
     </row>
-    <row r="91" spans="1:8" ht="19">
+    <row r="91" spans="1:8" ht="17.399999999999999">
       <c r="A91" s="6">
         <v>239690</v>
       </c>
@@ -3235,7 +3256,7 @@
       </c>
       <c r="H91" s="29"/>
     </row>
-    <row r="92" spans="1:8" ht="20" thickBot="1">
+    <row r="92" spans="1:8" ht="18" thickBot="1">
       <c r="A92" s="24">
         <v>239691</v>
       </c>
@@ -3256,7 +3277,7 @@
       </c>
       <c r="H92" s="29"/>
     </row>
-    <row r="93" spans="1:8" ht="19">
+    <row r="93" spans="1:8" ht="17.399999999999999">
       <c r="A93" s="2">
         <v>239692</v>
       </c>
@@ -3277,7 +3298,7 @@
       </c>
       <c r="H93" s="29"/>
     </row>
-    <row r="94" spans="1:8" ht="19">
+    <row r="94" spans="1:8" ht="17.399999999999999">
       <c r="A94" s="6">
         <v>239693</v>
       </c>
@@ -3298,7 +3319,7 @@
       </c>
       <c r="H94" s="29"/>
     </row>
-    <row r="95" spans="1:8" ht="19">
+    <row r="95" spans="1:8" ht="17.399999999999999">
       <c r="A95" s="6">
         <v>239694</v>
       </c>
@@ -3319,7 +3340,7 @@
       </c>
       <c r="H95" s="29"/>
     </row>
-    <row r="96" spans="1:8" ht="19">
+    <row r="96" spans="1:8" ht="17.399999999999999">
       <c r="A96" s="6">
         <v>239695</v>
       </c>
@@ -3340,7 +3361,7 @@
       </c>
       <c r="H96" s="29"/>
     </row>
-    <row r="97" spans="1:8" ht="19">
+    <row r="97" spans="1:8" ht="17.399999999999999">
       <c r="A97" s="6">
         <v>239696</v>
       </c>
@@ -3361,7 +3382,7 @@
       </c>
       <c r="H97" s="29"/>
     </row>
-    <row r="98" spans="1:8" ht="19">
+    <row r="98" spans="1:8" ht="17.399999999999999">
       <c r="A98" s="6">
         <v>239697</v>
       </c>
@@ -3381,7 +3402,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="19">
+    <row r="99" spans="1:8" ht="17.399999999999999">
       <c r="A99" s="6">
         <v>239698</v>
       </c>
@@ -3401,7 +3422,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="19">
+    <row r="100" spans="1:8" ht="17.399999999999999">
       <c r="A100" s="6">
         <v>239699</v>
       </c>
@@ -3421,7 +3442,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="19">
+    <row r="101" spans="1:8" ht="17.399999999999999">
       <c r="A101" s="6">
         <v>239700</v>
       </c>
@@ -3441,7 +3462,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="19">
+    <row r="102" spans="1:8" ht="17.399999999999999">
       <c r="A102" s="6">
         <v>239701</v>
       </c>
@@ -3461,7 +3482,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="19">
+    <row r="103" spans="1:8" ht="17.399999999999999">
       <c r="A103" s="6">
         <v>239702</v>
       </c>
@@ -3481,7 +3502,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="19">
+    <row r="104" spans="1:8" ht="17.399999999999999">
       <c r="A104" s="6">
         <v>239703</v>
       </c>
@@ -3501,7 +3522,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="19">
+    <row r="105" spans="1:8" ht="17.399999999999999">
       <c r="A105" s="6">
         <v>239704</v>
       </c>
@@ -3521,7 +3542,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="19">
+    <row r="106" spans="1:8" ht="17.399999999999999">
       <c r="A106" s="6">
         <v>239705</v>
       </c>
@@ -3541,7 +3562,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="19">
+    <row r="107" spans="1:8" ht="17.399999999999999">
       <c r="A107" s="6">
         <v>239706</v>
       </c>
@@ -3561,7 +3582,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="19">
+    <row r="108" spans="1:8" ht="17.399999999999999">
       <c r="A108" s="6">
         <v>239707</v>
       </c>
@@ -3581,7 +3602,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="19">
+    <row r="109" spans="1:8" ht="17.399999999999999">
       <c r="A109" s="6">
         <v>239708</v>
       </c>
@@ -3601,7 +3622,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="19">
+    <row r="110" spans="1:8" ht="17.399999999999999">
       <c r="A110" s="6">
         <v>239709</v>
       </c>
@@ -3621,7 +3642,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="19">
+    <row r="111" spans="1:8" ht="17.399999999999999">
       <c r="A111" s="6">
         <v>239710</v>
       </c>
@@ -3641,7 +3662,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="19">
+    <row r="112" spans="1:8" ht="17.399999999999999">
       <c r="A112" s="6">
         <v>239711</v>
       </c>
@@ -3661,7 +3682,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="19">
+    <row r="113" spans="1:6" ht="17.399999999999999">
       <c r="A113" s="6">
         <v>239712</v>
       </c>
@@ -3681,7 +3702,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="19">
+    <row r="114" spans="1:6" ht="17.399999999999999">
       <c r="A114" s="6">
         <v>239713</v>
       </c>
@@ -3701,7 +3722,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="19">
+    <row r="115" spans="1:6" ht="17.399999999999999">
       <c r="A115" s="6">
         <v>239714</v>
       </c>
@@ -3721,7 +3742,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="19">
+    <row r="116" spans="1:6" ht="17.399999999999999">
       <c r="A116" s="6">
         <v>239715</v>
       </c>
@@ -3741,7 +3762,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="19">
+    <row r="117" spans="1:6" ht="17.399999999999999">
       <c r="A117" s="6">
         <v>239716</v>
       </c>
@@ -3761,7 +3782,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="19">
+    <row r="118" spans="1:6" ht="17.399999999999999">
       <c r="A118" s="6">
         <v>239717</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="19">
+    <row r="119" spans="1:6" ht="17.399999999999999">
       <c r="A119" s="6">
         <v>239718</v>
       </c>
@@ -3801,7 +3822,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="19">
+    <row r="120" spans="1:6" ht="17.399999999999999">
       <c r="A120" s="6">
         <v>239719</v>
       </c>
@@ -3821,7 +3842,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="19">
+    <row r="121" spans="1:6" ht="17.399999999999999">
       <c r="A121" s="6">
         <v>239720</v>
       </c>
@@ -3841,7 +3862,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="20" thickBot="1">
+    <row r="122" spans="1:6" ht="18" thickBot="1">
       <c r="A122" s="24">
         <v>239721</v>
       </c>
@@ -3861,7 +3882,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="19">
+    <row r="123" spans="1:6" ht="17.399999999999999">
       <c r="A123" s="2">
         <v>239722</v>
       </c>
@@ -3881,7 +3902,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="19">
+    <row r="124" spans="1:6" ht="17.399999999999999">
       <c r="A124" s="6">
         <v>239723</v>
       </c>
@@ -3901,7 +3922,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="19">
+    <row r="125" spans="1:6" ht="17.399999999999999">
       <c r="A125" s="6">
         <v>239724</v>
       </c>
@@ -3921,7 +3942,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="19">
+    <row r="126" spans="1:6" ht="17.399999999999999">
       <c r="A126" s="6">
         <v>239725</v>
       </c>
@@ -3941,7 +3962,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="19">
+    <row r="127" spans="1:6" ht="17.399999999999999">
       <c r="A127" s="6">
         <v>239726</v>
       </c>
@@ -3961,7 +3982,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="19">
+    <row r="128" spans="1:6" ht="17.399999999999999">
       <c r="A128" s="6">
         <v>239727</v>
       </c>
@@ -3981,7 +4002,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="19">
+    <row r="129" spans="1:6" ht="17.399999999999999">
       <c r="A129" s="6">
         <v>239728</v>
       </c>
@@ -4001,7 +4022,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="19">
+    <row r="130" spans="1:6" ht="17.399999999999999">
       <c r="A130" s="6">
         <v>239729</v>
       </c>
@@ -4021,7 +4042,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="19">
+    <row r="131" spans="1:6" ht="17.399999999999999">
       <c r="A131" s="6">
         <v>239730</v>
       </c>
@@ -4041,7 +4062,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="19">
+    <row r="132" spans="1:6" ht="17.399999999999999">
       <c r="A132" s="6">
         <v>239731</v>
       </c>
@@ -4061,7 +4082,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="19">
+    <row r="133" spans="1:6" ht="17.399999999999999">
       <c r="A133" s="6">
         <v>239732</v>
       </c>
@@ -4081,7 +4102,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="19">
+    <row r="134" spans="1:6" ht="17.399999999999999">
       <c r="A134" s="6">
         <v>239733</v>
       </c>
@@ -4101,7 +4122,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="19">
+    <row r="135" spans="1:6" ht="17.399999999999999">
       <c r="A135" s="6">
         <v>239734</v>
       </c>
@@ -4121,7 +4142,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="19">
+    <row r="136" spans="1:6" ht="17.399999999999999">
       <c r="A136" s="6">
         <v>239735</v>
       </c>
@@ -4141,7 +4162,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="19">
+    <row r="137" spans="1:6" ht="17.399999999999999">
       <c r="A137" s="6">
         <v>239736</v>
       </c>
@@ -4161,7 +4182,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="19">
+    <row r="138" spans="1:6" ht="17.399999999999999">
       <c r="A138" s="6">
         <v>239737</v>
       </c>
@@ -4181,7 +4202,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="19">
+    <row r="139" spans="1:6" ht="17.399999999999999">
       <c r="A139" s="6">
         <v>239738</v>
       </c>
@@ -4201,7 +4222,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="19">
+    <row r="140" spans="1:6" ht="17.399999999999999">
       <c r="A140" s="6">
         <v>239739</v>
       </c>
@@ -4221,7 +4242,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="19">
+    <row r="141" spans="1:6" ht="17.399999999999999">
       <c r="A141" s="6">
         <v>239740</v>
       </c>
@@ -4241,7 +4262,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="19">
+    <row r="142" spans="1:6" ht="17.399999999999999">
       <c r="A142" s="6">
         <v>239741</v>
       </c>
@@ -4261,7 +4282,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="19">
+    <row r="143" spans="1:6" ht="17.399999999999999">
       <c r="A143" s="6">
         <v>239742</v>
       </c>
@@ -4281,7 +4302,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="19">
+    <row r="144" spans="1:6" ht="17.399999999999999">
       <c r="A144" s="6">
         <v>239743</v>
       </c>
@@ -4301,7 +4322,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="19">
+    <row r="145" spans="1:8" ht="17.399999999999999">
       <c r="A145" s="6">
         <v>239744</v>
       </c>
@@ -4321,7 +4342,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="19">
+    <row r="146" spans="1:8" ht="17.399999999999999">
       <c r="A146" s="6">
         <v>239745</v>
       </c>
@@ -4342,7 +4363,7 @@
       </c>
       <c r="H146" s="29"/>
     </row>
-    <row r="147" spans="1:8" ht="19">
+    <row r="147" spans="1:8" ht="17.399999999999999">
       <c r="A147" s="6">
         <v>239746</v>
       </c>
@@ -4363,7 +4384,7 @@
       </c>
       <c r="H147" s="29"/>
     </row>
-    <row r="148" spans="1:8" ht="19">
+    <row r="148" spans="1:8" ht="17.399999999999999">
       <c r="A148" s="6">
         <v>239747</v>
       </c>
@@ -4384,7 +4405,7 @@
       </c>
       <c r="H148" s="29"/>
     </row>
-    <row r="149" spans="1:8" ht="19">
+    <row r="149" spans="1:8" ht="17.399999999999999">
       <c r="A149" s="6">
         <v>239748</v>
       </c>
@@ -4405,7 +4426,7 @@
       </c>
       <c r="H149" s="29"/>
     </row>
-    <row r="150" spans="1:8" ht="19">
+    <row r="150" spans="1:8" ht="17.399999999999999">
       <c r="A150" s="6">
         <v>239749</v>
       </c>
@@ -4426,7 +4447,7 @@
       </c>
       <c r="H150" s="29"/>
     </row>
-    <row r="151" spans="1:8" ht="19">
+    <row r="151" spans="1:8" ht="17.399999999999999">
       <c r="A151" s="6">
         <v>239750</v>
       </c>
@@ -4446,7 +4467,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="19">
+    <row r="152" spans="1:8" ht="17.399999999999999">
       <c r="A152" s="6">
         <v>239751</v>
       </c>
@@ -4466,7 +4487,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="20" thickBot="1">
+    <row r="153" spans="1:8" ht="18" thickBot="1">
       <c r="A153" s="24">
         <v>239752</v>
       </c>
@@ -4486,7 +4507,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="19">
+    <row r="154" spans="1:8" ht="17.399999999999999">
       <c r="A154" s="2">
         <v>239753</v>
       </c>
@@ -4506,7 +4527,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="19">
+    <row r="155" spans="1:8" ht="17.399999999999999">
       <c r="A155" s="6">
         <v>239754</v>
       </c>
@@ -4526,7 +4547,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="19">
+    <row r="156" spans="1:8" ht="17.399999999999999">
       <c r="A156" s="6">
         <v>239755</v>
       </c>
@@ -4546,7 +4567,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="19">
+    <row r="157" spans="1:8" ht="17.399999999999999">
       <c r="A157" s="6">
         <v>239756</v>
       </c>
@@ -4566,7 +4587,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="19">
+    <row r="158" spans="1:8" ht="17.399999999999999">
       <c r="A158" s="6">
         <v>239757</v>
       </c>
@@ -4586,7 +4607,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="19">
+    <row r="159" spans="1:8" ht="17.399999999999999">
       <c r="A159" s="6">
         <v>239758</v>
       </c>
@@ -4606,7 +4627,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="19">
+    <row r="160" spans="1:8" ht="17.399999999999999">
       <c r="A160" s="6">
         <v>239759</v>
       </c>
@@ -4626,7 +4647,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="19">
+    <row r="161" spans="1:6" ht="17.399999999999999">
       <c r="A161" s="6">
         <v>239760</v>
       </c>
@@ -4646,7 +4667,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="19">
+    <row r="162" spans="1:6" ht="17.399999999999999">
       <c r="A162" s="6">
         <v>239761</v>
       </c>
@@ -4666,7 +4687,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="19">
+    <row r="163" spans="1:6" ht="17.399999999999999">
       <c r="A163" s="6">
         <v>239762</v>
       </c>
@@ -4686,7 +4707,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="19">
+    <row r="164" spans="1:6" ht="17.399999999999999">
       <c r="A164" s="6">
         <v>239763</v>
       </c>
@@ -4706,7 +4727,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="19">
+    <row r="165" spans="1:6" ht="17.399999999999999">
       <c r="A165" s="6">
         <v>239764</v>
       </c>
@@ -4726,7 +4747,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="19">
+    <row r="166" spans="1:6" ht="17.399999999999999">
       <c r="A166" s="6">
         <v>239765</v>
       </c>
@@ -4746,7 +4767,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="19">
+    <row r="167" spans="1:6" ht="17.399999999999999">
       <c r="A167" s="6">
         <v>239766</v>
       </c>
@@ -4766,7 +4787,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="19">
+    <row r="168" spans="1:6" ht="17.399999999999999">
       <c r="A168" s="6">
         <v>239767</v>
       </c>
@@ -4786,7 +4807,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="19">
+    <row r="169" spans="1:6" ht="17.399999999999999">
       <c r="A169" s="6">
         <v>239768</v>
       </c>
@@ -4806,7 +4827,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="19">
+    <row r="170" spans="1:6" ht="17.399999999999999">
       <c r="A170" s="6">
         <v>239769</v>
       </c>
@@ -4826,7 +4847,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="19">
+    <row r="171" spans="1:6" ht="17.399999999999999">
       <c r="A171" s="6">
         <v>239770</v>
       </c>
@@ -4846,7 +4867,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="19">
+    <row r="172" spans="1:6" ht="17.399999999999999">
       <c r="A172" s="6">
         <v>239771</v>
       </c>
@@ -4866,7 +4887,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="19">
+    <row r="173" spans="1:6" ht="17.399999999999999">
       <c r="A173" s="6">
         <v>239772</v>
       </c>
@@ -4886,7 +4907,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="19">
+    <row r="174" spans="1:6" ht="17.399999999999999">
       <c r="A174" s="6">
         <v>239773</v>
       </c>
@@ -4906,7 +4927,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="19">
+    <row r="175" spans="1:6" ht="17.399999999999999">
       <c r="A175" s="6">
         <v>239774</v>
       </c>
@@ -4926,7 +4947,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="19">
+    <row r="176" spans="1:6" ht="17.399999999999999">
       <c r="A176" s="6">
         <v>239775</v>
       </c>
@@ -4946,7 +4967,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="19">
+    <row r="177" spans="1:6" ht="17.399999999999999">
       <c r="A177" s="6">
         <v>239776</v>
       </c>
@@ -4966,7 +4987,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="19">
+    <row r="178" spans="1:6" ht="17.399999999999999">
       <c r="A178" s="6">
         <v>239777</v>
       </c>
@@ -4986,7 +5007,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="19">
+    <row r="179" spans="1:6" ht="17.399999999999999">
       <c r="A179" s="6">
         <v>239778</v>
       </c>
@@ -5006,7 +5027,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="19">
+    <row r="180" spans="1:6" ht="17.399999999999999">
       <c r="A180" s="6">
         <v>239779</v>
       </c>
@@ -5026,7 +5047,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="19">
+    <row r="181" spans="1:6" ht="17.399999999999999">
       <c r="A181" s="6">
         <v>239780</v>
       </c>
@@ -5046,7 +5067,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="19">
+    <row r="182" spans="1:6" ht="17.399999999999999">
       <c r="A182" s="6">
         <v>239781</v>
       </c>
@@ -5066,7 +5087,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="20" thickBot="1">
+    <row r="183" spans="1:6" ht="18" thickBot="1">
       <c r="A183" s="24">
         <v>239782</v>
       </c>
@@ -5086,7 +5107,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="19">
+    <row r="184" spans="1:6" ht="17.399999999999999">
       <c r="A184" s="2">
         <v>239783</v>
       </c>
@@ -5106,7 +5127,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="19">
+    <row r="185" spans="1:6" ht="17.399999999999999">
       <c r="A185" s="6">
         <v>239784</v>
       </c>
@@ -5126,7 +5147,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="19">
+    <row r="186" spans="1:6" ht="17.399999999999999">
       <c r="A186" s="6">
         <v>239785</v>
       </c>
@@ -5146,7 +5167,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="19">
+    <row r="187" spans="1:6" ht="17.399999999999999">
       <c r="A187" s="6">
         <v>239786</v>
       </c>
@@ -5166,7 +5187,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="19">
+    <row r="188" spans="1:6" ht="17.399999999999999">
       <c r="A188" s="6">
         <v>239787</v>
       </c>
@@ -5186,7 +5207,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="19">
+    <row r="189" spans="1:6" ht="17.399999999999999">
       <c r="A189" s="6">
         <v>239788</v>
       </c>
@@ -5206,7 +5227,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="19">
+    <row r="190" spans="1:6" ht="17.399999999999999">
       <c r="A190" s="6">
         <v>239789</v>
       </c>
@@ -5226,7 +5247,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="19">
+    <row r="191" spans="1:6" ht="17.399999999999999">
       <c r="A191" s="6">
         <v>239790</v>
       </c>
@@ -5246,7 +5267,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="19">
+    <row r="192" spans="1:6" ht="17.399999999999999">
       <c r="A192" s="6">
         <v>239791</v>
       </c>
@@ -5266,7 +5287,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="19">
+    <row r="193" spans="1:8" ht="17.399999999999999">
       <c r="A193" s="6">
         <v>239792</v>
       </c>
@@ -5286,7 +5307,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="19">
+    <row r="194" spans="1:8" ht="17.399999999999999">
       <c r="A194" s="6">
         <v>239793</v>
       </c>
@@ -5306,7 +5327,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="19">
+    <row r="195" spans="1:8" ht="17.399999999999999">
       <c r="A195" s="6">
         <v>239794</v>
       </c>
@@ -5326,7 +5347,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="19">
+    <row r="196" spans="1:8" ht="17.399999999999999">
       <c r="A196" s="6">
         <v>239795</v>
       </c>
@@ -5346,7 +5367,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="19">
+    <row r="197" spans="1:8" ht="17.399999999999999">
       <c r="A197" s="6">
         <v>239796</v>
       </c>
@@ -5366,7 +5387,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="19">
+    <row r="198" spans="1:8" ht="17.399999999999999">
       <c r="A198" s="6">
         <v>239797</v>
       </c>
@@ -5386,7 +5407,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="19">
+    <row r="199" spans="1:8" ht="17.399999999999999">
       <c r="A199" s="6">
         <v>239798</v>
       </c>
@@ -5406,7 +5427,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="19">
+    <row r="200" spans="1:8" ht="17.399999999999999">
       <c r="A200" s="6">
         <v>239799</v>
       </c>
@@ -5426,7 +5447,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="19">
+    <row r="201" spans="1:8" ht="17.399999999999999">
       <c r="A201" s="6">
         <v>239800</v>
       </c>
@@ -5446,7 +5467,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="19">
+    <row r="202" spans="1:8" ht="17.399999999999999">
       <c r="A202" s="6">
         <v>239801</v>
       </c>
@@ -5467,7 +5488,7 @@
       </c>
       <c r="H202" s="29"/>
     </row>
-    <row r="203" spans="1:8" ht="19">
+    <row r="203" spans="1:8" ht="17.399999999999999">
       <c r="A203" s="6">
         <v>239802</v>
       </c>
@@ -5488,7 +5509,7 @@
       </c>
       <c r="H203" s="29"/>
     </row>
-    <row r="204" spans="1:8" ht="19">
+    <row r="204" spans="1:8" ht="17.399999999999999">
       <c r="A204" s="6">
         <v>239803</v>
       </c>
@@ -5509,7 +5530,7 @@
       </c>
       <c r="H204" s="29"/>
     </row>
-    <row r="205" spans="1:8" ht="19">
+    <row r="205" spans="1:8" ht="17.399999999999999">
       <c r="A205" s="6">
         <v>239804</v>
       </c>
@@ -5530,7 +5551,7 @@
       </c>
       <c r="H205" s="29"/>
     </row>
-    <row r="206" spans="1:8" ht="19">
+    <row r="206" spans="1:8" ht="17.399999999999999">
       <c r="A206" s="6">
         <v>239805</v>
       </c>
@@ -5551,7 +5572,7 @@
       </c>
       <c r="H206" s="29"/>
     </row>
-    <row r="207" spans="1:8" ht="19">
+    <row r="207" spans="1:8" ht="17.399999999999999">
       <c r="A207" s="6">
         <v>239806</v>
       </c>
@@ -5572,7 +5593,7 @@
       </c>
       <c r="H207" s="29"/>
     </row>
-    <row r="208" spans="1:8" ht="19">
+    <row r="208" spans="1:8" ht="17.399999999999999">
       <c r="A208" s="6">
         <v>239807</v>
       </c>
@@ -5593,7 +5614,7 @@
       </c>
       <c r="H208" s="29"/>
     </row>
-    <row r="209" spans="1:8" ht="19">
+    <row r="209" spans="1:8" ht="17.399999999999999">
       <c r="A209" s="6">
         <v>239808</v>
       </c>
@@ -5614,7 +5635,7 @@
       </c>
       <c r="H209" s="29"/>
     </row>
-    <row r="210" spans="1:8" ht="19">
+    <row r="210" spans="1:8" ht="17.399999999999999">
       <c r="A210" s="6">
         <v>239809</v>
       </c>
@@ -5635,7 +5656,7 @@
       </c>
       <c r="H210" s="29"/>
     </row>
-    <row r="211" spans="1:8" ht="19">
+    <row r="211" spans="1:8" ht="17.399999999999999">
       <c r="A211" s="6">
         <v>239810</v>
       </c>
@@ -5656,7 +5677,7 @@
       </c>
       <c r="H211" s="29"/>
     </row>
-    <row r="212" spans="1:8" ht="19">
+    <row r="212" spans="1:8" ht="17.399999999999999">
       <c r="A212" s="6">
         <v>239811</v>
       </c>
@@ -5677,7 +5698,7 @@
       </c>
       <c r="H212" s="29"/>
     </row>
-    <row r="213" spans="1:8" ht="19">
+    <row r="213" spans="1:8" ht="17.399999999999999">
       <c r="A213" s="6">
         <v>239812</v>
       </c>
@@ -5698,7 +5719,7 @@
       </c>
       <c r="H213" s="29"/>
     </row>
-    <row r="214" spans="1:8" ht="20" thickBot="1">
+    <row r="214" spans="1:8" ht="18" thickBot="1">
       <c r="A214" s="24">
         <v>239813</v>
       </c>
@@ -5719,7 +5740,7 @@
       </c>
       <c r="H214" s="29"/>
     </row>
-    <row r="215" spans="1:8" ht="19">
+    <row r="215" spans="1:8" ht="17.399999999999999">
       <c r="A215" s="2">
         <v>239814</v>
       </c>
@@ -5740,7 +5761,7 @@
       </c>
       <c r="H215" s="29"/>
     </row>
-    <row r="216" spans="1:8" ht="19">
+    <row r="216" spans="1:8" ht="17.399999999999999">
       <c r="A216" s="6">
         <v>239815</v>
       </c>
@@ -5761,7 +5782,7 @@
       </c>
       <c r="H216" s="29"/>
     </row>
-    <row r="217" spans="1:8" ht="19">
+    <row r="217" spans="1:8" ht="17.399999999999999">
       <c r="A217" s="6">
         <v>239816</v>
       </c>
@@ -5782,7 +5803,7 @@
       </c>
       <c r="H217" s="29"/>
     </row>
-    <row r="218" spans="1:8" ht="19">
+    <row r="218" spans="1:8" ht="17.399999999999999">
       <c r="A218" s="6">
         <v>239817</v>
       </c>
@@ -5803,7 +5824,7 @@
       </c>
       <c r="H218" s="29"/>
     </row>
-    <row r="219" spans="1:8" ht="19">
+    <row r="219" spans="1:8" ht="17.399999999999999">
       <c r="A219" s="6">
         <v>239818</v>
       </c>
@@ -5824,7 +5845,7 @@
       </c>
       <c r="H219" s="29"/>
     </row>
-    <row r="220" spans="1:8" ht="19">
+    <row r="220" spans="1:8" ht="17.399999999999999">
       <c r="A220" s="6">
         <v>239819</v>
       </c>
@@ -5844,7 +5865,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="19">
+    <row r="221" spans="1:8" ht="17.399999999999999">
       <c r="A221" s="6">
         <v>239820</v>
       </c>
@@ -5864,7 +5885,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="19">
+    <row r="222" spans="1:8" ht="17.399999999999999">
       <c r="A222" s="6">
         <v>239821</v>
       </c>
@@ -5884,7 +5905,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="19">
+    <row r="223" spans="1:8" ht="17.399999999999999">
       <c r="A223" s="6">
         <v>239822</v>
       </c>
@@ -5904,7 +5925,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="19">
+    <row r="224" spans="1:8" ht="17.399999999999999">
       <c r="A224" s="6">
         <v>239823</v>
       </c>
@@ -5924,7 +5945,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="19">
+    <row r="225" spans="1:6" ht="17.399999999999999">
       <c r="A225" s="6">
         <v>239824</v>
       </c>
@@ -5944,7 +5965,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="19">
+    <row r="226" spans="1:6" ht="17.399999999999999">
       <c r="A226" s="6">
         <v>239825</v>
       </c>
@@ -5964,7 +5985,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="19">
+    <row r="227" spans="1:6" ht="17.399999999999999">
       <c r="A227" s="6">
         <v>239826</v>
       </c>
@@ -5984,7 +6005,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="19">
+    <row r="228" spans="1:6" ht="17.399999999999999">
       <c r="A228" s="6">
         <v>239827</v>
       </c>
@@ -6004,7 +6025,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="19">
+    <row r="229" spans="1:6" ht="17.399999999999999">
       <c r="A229" s="6">
         <v>239828</v>
       </c>
@@ -6024,7 +6045,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="19">
+    <row r="230" spans="1:6" ht="17.399999999999999">
       <c r="A230" s="6">
         <v>239829</v>
       </c>
@@ -6044,7 +6065,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="19">
+    <row r="231" spans="1:6" ht="17.399999999999999">
       <c r="A231" s="6">
         <v>239830</v>
       </c>
@@ -6064,7 +6085,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="19">
+    <row r="232" spans="1:6" ht="17.399999999999999">
       <c r="A232" s="6">
         <v>239831</v>
       </c>
@@ -6084,7 +6105,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="19">
+    <row r="233" spans="1:6" ht="17.399999999999999">
       <c r="A233" s="6">
         <v>239832</v>
       </c>
@@ -6104,7 +6125,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="19">
+    <row r="234" spans="1:6" ht="17.399999999999999">
       <c r="A234" s="6">
         <v>239833</v>
       </c>
@@ -6124,7 +6145,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="19">
+    <row r="235" spans="1:6" ht="17.399999999999999">
       <c r="A235" s="6">
         <v>239834</v>
       </c>
@@ -6144,7 +6165,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="19">
+    <row r="236" spans="1:6" ht="17.399999999999999">
       <c r="A236" s="6">
         <v>239835</v>
       </c>
@@ -6164,7 +6185,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="19">
+    <row r="237" spans="1:6" ht="17.399999999999999">
       <c r="A237" s="6">
         <v>239836</v>
       </c>
@@ -6184,7 +6205,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="19">
+    <row r="238" spans="1:6" ht="17.399999999999999">
       <c r="A238" s="6">
         <v>239837</v>
       </c>
@@ -6204,7 +6225,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="19">
+    <row r="239" spans="1:6" ht="17.399999999999999">
       <c r="A239" s="6">
         <v>239838</v>
       </c>
@@ -6224,7 +6245,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="19">
+    <row r="240" spans="1:6" ht="17.399999999999999">
       <c r="A240" s="6">
         <v>239839</v>
       </c>
@@ -6244,7 +6265,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="19">
+    <row r="241" spans="1:6" ht="17.399999999999999">
       <c r="A241" s="6">
         <v>239840</v>
       </c>
@@ -6264,7 +6285,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="19">
+    <row r="242" spans="1:6" ht="17.399999999999999">
       <c r="A242" s="6">
         <v>239841</v>
       </c>
@@ -6284,7 +6305,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="19">
+    <row r="243" spans="1:6" ht="17.399999999999999">
       <c r="A243" s="6">
         <v>239842</v>
       </c>
@@ -6304,7 +6325,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="19">
+    <row r="244" spans="1:6" ht="17.399999999999999">
       <c r="A244" s="6">
         <v>239843</v>
       </c>
@@ -6324,7 +6345,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="20" thickBot="1">
+    <row r="245" spans="1:6" ht="18" thickBot="1">
       <c r="A245" s="24">
         <v>239844</v>
       </c>
@@ -6344,7 +6365,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="19">
+    <row r="246" spans="1:6" ht="17.399999999999999">
       <c r="A246" s="2">
         <v>239845</v>
       </c>
@@ -6364,7 +6385,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="19">
+    <row r="247" spans="1:6" ht="17.399999999999999">
       <c r="A247" s="6">
         <v>239846</v>
       </c>
@@ -6384,7 +6405,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="19">
+    <row r="248" spans="1:6" ht="17.399999999999999">
       <c r="A248" s="6">
         <v>239847</v>
       </c>
@@ -6404,7 +6425,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="19">
+    <row r="249" spans="1:6" ht="17.399999999999999">
       <c r="A249" s="6">
         <v>239848</v>
       </c>
@@ -6424,7 +6445,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="19">
+    <row r="250" spans="1:6" ht="17.399999999999999">
       <c r="A250" s="6">
         <v>239849</v>
       </c>
@@ -6444,7 +6465,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="19">
+    <row r="251" spans="1:6" ht="17.399999999999999">
       <c r="A251" s="6">
         <v>239850</v>
       </c>
@@ -6464,7 +6485,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="19">
+    <row r="252" spans="1:6" ht="17.399999999999999">
       <c r="A252" s="6">
         <v>239851</v>
       </c>
@@ -6484,7 +6505,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="19">
+    <row r="253" spans="1:6" ht="17.399999999999999">
       <c r="A253" s="6">
         <v>239852</v>
       </c>
@@ -6504,7 +6525,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="19">
+    <row r="254" spans="1:6" ht="17.399999999999999">
       <c r="A254" s="6">
         <v>239853</v>
       </c>
@@ -6524,7 +6545,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="19">
+    <row r="255" spans="1:6" ht="17.399999999999999">
       <c r="A255" s="6">
         <v>239854</v>
       </c>
@@ -6544,7 +6565,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="19">
+    <row r="256" spans="1:6" ht="17.399999999999999">
       <c r="A256" s="6">
         <v>239855</v>
       </c>
@@ -6564,7 +6585,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="19">
+    <row r="257" spans="1:6" ht="17.399999999999999">
       <c r="A257" s="6">
         <v>239856</v>
       </c>
@@ -6584,7 +6605,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="19">
+    <row r="258" spans="1:6" ht="17.399999999999999">
       <c r="A258" s="6">
         <v>239857</v>
       </c>
@@ -6604,7 +6625,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="19">
+    <row r="259" spans="1:6" ht="17.399999999999999">
       <c r="A259" s="6">
         <v>239858</v>
       </c>
@@ -6624,7 +6645,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="19">
+    <row r="260" spans="1:6" ht="17.399999999999999">
       <c r="A260" s="6">
         <v>239859</v>
       </c>
@@ -6644,7 +6665,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="19">
+    <row r="261" spans="1:6" ht="17.399999999999999">
       <c r="A261" s="6">
         <v>239860</v>
       </c>
@@ -6664,7 +6685,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="19">
+    <row r="262" spans="1:6" ht="17.399999999999999">
       <c r="A262" s="6">
         <v>239861</v>
       </c>
@@ -6684,7 +6705,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="19">
+    <row r="263" spans="1:6" ht="17.399999999999999">
       <c r="A263" s="6">
         <v>239862</v>
       </c>
@@ -6704,7 +6725,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="19">
+    <row r="264" spans="1:6" ht="17.399999999999999">
       <c r="A264" s="6">
         <v>239863</v>
       </c>
@@ -6724,7 +6745,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="19">
+    <row r="265" spans="1:6" ht="17.399999999999999">
       <c r="A265" s="6">
         <v>239864</v>
       </c>
@@ -6744,7 +6765,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="19">
+    <row r="266" spans="1:6" ht="17.399999999999999">
       <c r="A266" s="6">
         <v>239865</v>
       </c>
@@ -6764,7 +6785,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="19">
+    <row r="267" spans="1:6" ht="17.399999999999999">
       <c r="A267" s="6">
         <v>239866</v>
       </c>
@@ -6784,7 +6805,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="19">
+    <row r="268" spans="1:6" ht="17.399999999999999">
       <c r="A268" s="6">
         <v>239867</v>
       </c>
@@ -6804,7 +6825,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="19">
+    <row r="269" spans="1:6" ht="17.399999999999999">
       <c r="A269" s="6">
         <v>239868</v>
       </c>
@@ -6824,7 +6845,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="19">
+    <row r="270" spans="1:6" ht="17.399999999999999">
       <c r="A270" s="6">
         <v>239869</v>
       </c>
@@ -6844,7 +6865,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="19">
+    <row r="271" spans="1:6" ht="17.399999999999999">
       <c r="A271" s="6">
         <v>239870</v>
       </c>
@@ -6864,7 +6885,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="19">
+    <row r="272" spans="1:6" ht="17.399999999999999">
       <c r="A272" s="6">
         <v>239871</v>
       </c>
@@ -6884,7 +6905,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="19">
+    <row r="273" spans="1:6" ht="17.399999999999999">
       <c r="A273" s="6">
         <v>239872</v>
       </c>
@@ -6904,7 +6925,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="19">
+    <row r="274" spans="1:6" ht="17.399999999999999">
       <c r="A274" s="6">
         <v>239873</v>
       </c>
@@ -6924,7 +6945,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="20" thickBot="1">
+    <row r="275" spans="1:6" ht="18" thickBot="1">
       <c r="A275" s="24">
         <v>239874</v>
       </c>
@@ -6944,7 +6965,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="19">
+    <row r="276" spans="1:6" ht="17.399999999999999">
       <c r="A276" s="2">
         <v>239875</v>
       </c>
@@ -6964,7 +6985,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="19">
+    <row r="277" spans="1:6" ht="17.399999999999999">
       <c r="A277" s="6">
         <v>239876</v>
       </c>
@@ -6984,7 +7005,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="19">
+    <row r="278" spans="1:6" ht="17.399999999999999">
       <c r="A278" s="6">
         <v>239877</v>
       </c>
@@ -7004,7 +7025,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="19">
+    <row r="279" spans="1:6" ht="17.399999999999999">
       <c r="A279" s="6">
         <v>239878</v>
       </c>
@@ -7024,7 +7045,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="19">
+    <row r="280" spans="1:6" ht="17.399999999999999">
       <c r="A280" s="6">
         <v>239879</v>
       </c>
@@ -7044,7 +7065,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="19">
+    <row r="281" spans="1:6" ht="17.399999999999999">
       <c r="A281" s="6">
         <v>239880</v>
       </c>
@@ -7064,7 +7085,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="19">
+    <row r="282" spans="1:6" ht="17.399999999999999">
       <c r="A282" s="6">
         <v>239881</v>
       </c>
@@ -7084,7 +7105,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="19">
+    <row r="283" spans="1:6" ht="17.399999999999999">
       <c r="A283" s="6">
         <v>239882</v>
       </c>
@@ -7104,7 +7125,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="19">
+    <row r="284" spans="1:6" ht="17.399999999999999">
       <c r="A284" s="6">
         <v>239883</v>
       </c>
@@ -7124,7 +7145,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="19">
+    <row r="285" spans="1:6" ht="17.399999999999999">
       <c r="A285" s="6">
         <v>239884</v>
       </c>
@@ -7144,7 +7165,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="19">
+    <row r="286" spans="1:6" ht="17.399999999999999">
       <c r="A286" s="6">
         <v>239885</v>
       </c>
@@ -7164,7 +7185,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="19">
+    <row r="287" spans="1:6" ht="17.399999999999999">
       <c r="A287" s="6">
         <v>239886</v>
       </c>
@@ -7184,7 +7205,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="19">
+    <row r="288" spans="1:6" ht="17.399999999999999">
       <c r="A288" s="6">
         <v>239887</v>
       </c>
@@ -7204,7 +7225,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="19">
+    <row r="289" spans="1:6" ht="17.399999999999999">
       <c r="A289" s="6">
         <v>239888</v>
       </c>
@@ -7224,7 +7245,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="19">
+    <row r="290" spans="1:6" ht="17.399999999999999">
       <c r="A290" s="6">
         <v>239889</v>
       </c>
@@ -7244,7 +7265,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="19">
+    <row r="291" spans="1:6" ht="17.399999999999999">
       <c r="A291" s="6">
         <v>239890</v>
       </c>
@@ -7264,7 +7285,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="19">
+    <row r="292" spans="1:6" ht="17.399999999999999">
       <c r="A292" s="6">
         <v>239891</v>
       </c>
@@ -7284,7 +7305,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="19">
+    <row r="293" spans="1:6" ht="17.399999999999999">
       <c r="A293" s="6">
         <v>239892</v>
       </c>
@@ -7304,7 +7325,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="19">
+    <row r="294" spans="1:6" ht="17.399999999999999">
       <c r="A294" s="6">
         <v>239893</v>
       </c>
@@ -7324,7 +7345,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="19">
+    <row r="295" spans="1:6" ht="17.399999999999999">
       <c r="A295" s="6">
         <v>239894</v>
       </c>
@@ -7344,7 +7365,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="19">
+    <row r="296" spans="1:6" ht="17.399999999999999">
       <c r="A296" s="6">
         <v>239895</v>
       </c>
@@ -7364,7 +7385,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="19">
+    <row r="297" spans="1:6" ht="17.399999999999999">
       <c r="A297" s="6">
         <v>239896</v>
       </c>
@@ -7384,7 +7405,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="19">
+    <row r="298" spans="1:6" ht="17.399999999999999">
       <c r="A298" s="6">
         <v>239897</v>
       </c>
@@ -7404,7 +7425,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="19">
+    <row r="299" spans="1:6" ht="17.399999999999999">
       <c r="A299" s="6">
         <v>239898</v>
       </c>
@@ -7424,7 +7445,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="19">
+    <row r="300" spans="1:6" ht="17.399999999999999">
       <c r="A300" s="6">
         <v>239899</v>
       </c>
@@ -7444,7 +7465,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="19">
+    <row r="301" spans="1:6" ht="17.399999999999999">
       <c r="A301" s="6">
         <v>239900</v>
       </c>
@@ -7464,7 +7485,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="19">
+    <row r="302" spans="1:6" ht="17.399999999999999">
       <c r="A302" s="6">
         <v>239901</v>
       </c>
@@ -7484,7 +7505,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="19">
+    <row r="303" spans="1:6" ht="17.399999999999999">
       <c r="A303" s="6">
         <v>239902</v>
       </c>
@@ -7504,7 +7525,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="19">
+    <row r="304" spans="1:6" ht="17.399999999999999">
       <c r="A304" s="6">
         <v>239903</v>
       </c>
@@ -7524,7 +7545,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="19">
+    <row r="305" spans="1:6" ht="17.399999999999999">
       <c r="A305" s="6">
         <v>239904</v>
       </c>
@@ -7544,7 +7565,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="20" thickBot="1">
+    <row r="306" spans="1:6" ht="18" thickBot="1">
       <c r="A306" s="24">
         <v>239905</v>
       </c>
@@ -7564,7 +7585,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="19">
+    <row r="307" spans="1:6" ht="17.399999999999999">
       <c r="A307" s="2">
         <v>239906</v>
       </c>
@@ -7584,7 +7605,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="19">
+    <row r="308" spans="1:6" ht="17.399999999999999">
       <c r="A308" s="6">
         <v>239907</v>
       </c>
@@ -7604,7 +7625,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="19">
+    <row r="309" spans="1:6" ht="17.399999999999999">
       <c r="A309" s="6">
         <v>239908</v>
       </c>
@@ -7624,7 +7645,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="19">
+    <row r="310" spans="1:6" ht="17.399999999999999">
       <c r="A310" s="6">
         <v>239909</v>
       </c>
@@ -7644,7 +7665,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="19">
+    <row r="311" spans="1:6" ht="17.399999999999999">
       <c r="A311" s="6">
         <v>239910</v>
       </c>
@@ -7664,7 +7685,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="19">
+    <row r="312" spans="1:6" ht="17.399999999999999">
       <c r="A312" s="6">
         <v>239911</v>
       </c>
@@ -7684,7 +7705,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="19">
+    <row r="313" spans="1:6" ht="17.399999999999999">
       <c r="A313" s="6">
         <v>239912</v>
       </c>
@@ -7704,7 +7725,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="19">
+    <row r="314" spans="1:6" ht="17.399999999999999">
       <c r="A314" s="6">
         <v>239913</v>
       </c>
@@ -7724,7 +7745,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="19">
+    <row r="315" spans="1:6" ht="17.399999999999999">
       <c r="A315" s="6">
         <v>239914</v>
       </c>
@@ -7744,7 +7765,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="19">
+    <row r="316" spans="1:6" ht="17.399999999999999">
       <c r="A316" s="6">
         <v>239915</v>
       </c>
@@ -7764,7 +7785,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="19">
+    <row r="317" spans="1:6" ht="17.399999999999999">
       <c r="A317" s="6">
         <v>239916</v>
       </c>
@@ -7784,7 +7805,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="19">
+    <row r="318" spans="1:6" ht="17.399999999999999">
       <c r="A318" s="6">
         <v>239917</v>
       </c>
@@ -7804,7 +7825,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="19">
+    <row r="319" spans="1:6" ht="17.399999999999999">
       <c r="A319" s="6">
         <v>239918</v>
       </c>
@@ -7824,7 +7845,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="19">
+    <row r="320" spans="1:6" ht="17.399999999999999">
       <c r="A320" s="6">
         <v>239919</v>
       </c>
@@ -7844,7 +7865,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="19">
+    <row r="321" spans="1:6" ht="17.399999999999999">
       <c r="A321" s="6">
         <v>239920</v>
       </c>
@@ -7864,7 +7885,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="19">
+    <row r="322" spans="1:6" ht="17.399999999999999">
       <c r="A322" s="6">
         <v>239921</v>
       </c>
@@ -7884,7 +7905,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="19">
+    <row r="323" spans="1:6" ht="17.399999999999999">
       <c r="A323" s="6">
         <v>239922</v>
       </c>
@@ -7904,7 +7925,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="19">
+    <row r="324" spans="1:6" ht="17.399999999999999">
       <c r="A324" s="6">
         <v>239923</v>
       </c>
@@ -7924,7 +7945,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="19">
+    <row r="325" spans="1:6" ht="17.399999999999999">
       <c r="A325" s="6">
         <v>239924</v>
       </c>
@@ -7944,7 +7965,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="19">
+    <row r="326" spans="1:6" ht="17.399999999999999">
       <c r="A326" s="6">
         <v>239925</v>
       </c>
@@ -7964,7 +7985,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="19">
+    <row r="327" spans="1:6" ht="17.399999999999999">
       <c r="A327" s="6">
         <v>239926</v>
       </c>
@@ -7984,7 +8005,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="19">
+    <row r="328" spans="1:6" ht="17.399999999999999">
       <c r="A328" s="6">
         <v>239927</v>
       </c>
@@ -8004,7 +8025,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="19">
+    <row r="329" spans="1:6" ht="17.399999999999999">
       <c r="A329" s="6">
         <v>239928</v>
       </c>
@@ -8024,7 +8045,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="19">
+    <row r="330" spans="1:6" ht="17.399999999999999">
       <c r="A330" s="6">
         <v>239929</v>
       </c>
@@ -8044,7 +8065,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="19">
+    <row r="331" spans="1:6" ht="17.399999999999999">
       <c r="A331" s="6">
         <v>239930</v>
       </c>
@@ -8064,7 +8085,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="19">
+    <row r="332" spans="1:6" ht="17.399999999999999">
       <c r="A332" s="6">
         <v>239931</v>
       </c>
@@ -8084,7 +8105,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="19">
+    <row r="333" spans="1:6" ht="17.399999999999999">
       <c r="A333" s="6">
         <v>239932</v>
       </c>
@@ -8104,7 +8125,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="19">
+    <row r="334" spans="1:6" ht="17.399999999999999">
       <c r="A334" s="6">
         <v>239933</v>
       </c>
@@ -8124,7 +8145,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="19">
+    <row r="335" spans="1:6" ht="17.399999999999999">
       <c r="A335" s="6">
         <v>239934</v>
       </c>
@@ -8144,7 +8165,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="20" thickBot="1">
+    <row r="336" spans="1:6" ht="18" thickBot="1">
       <c r="A336" s="24">
         <v>239935</v>
       </c>
@@ -8164,7 +8185,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="19">
+    <row r="337" spans="1:6" ht="17.399999999999999">
       <c r="A337" s="2">
         <v>239936</v>
       </c>
@@ -8184,7 +8205,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="19">
+    <row r="338" spans="1:6" ht="17.399999999999999">
       <c r="A338" s="6">
         <v>239937</v>
       </c>
@@ -8204,7 +8225,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="19">
+    <row r="339" spans="1:6" ht="17.399999999999999">
       <c r="A339" s="6">
         <v>239938</v>
       </c>
@@ -8224,7 +8245,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="19">
+    <row r="340" spans="1:6" ht="17.399999999999999">
       <c r="A340" s="6">
         <v>239939</v>
       </c>
@@ -8244,7 +8265,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="19">
+    <row r="341" spans="1:6" ht="17.399999999999999">
       <c r="A341" s="6">
         <v>239940</v>
       </c>
@@ -8264,7 +8285,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="19">
+    <row r="342" spans="1:6" ht="17.399999999999999">
       <c r="A342" s="6">
         <v>239941</v>
       </c>
@@ -8284,7 +8305,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="19">
+    <row r="343" spans="1:6" ht="17.399999999999999">
       <c r="A343" s="6">
         <v>239942</v>
       </c>
@@ -8304,7 +8325,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="19">
+    <row r="344" spans="1:6" ht="17.399999999999999">
       <c r="A344" s="6">
         <v>239943</v>
       </c>
@@ -8324,7 +8345,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="19">
+    <row r="345" spans="1:6" ht="17.399999999999999">
       <c r="A345" s="6">
         <v>239944</v>
       </c>
@@ -8344,7 +8365,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="19">
+    <row r="346" spans="1:6" ht="17.399999999999999">
       <c r="A346" s="6">
         <v>239945</v>
       </c>
@@ -8364,7 +8385,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="19">
+    <row r="347" spans="1:6" ht="17.399999999999999">
       <c r="A347" s="6">
         <v>239946</v>
       </c>
@@ -8384,7 +8405,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="19">
+    <row r="348" spans="1:6" ht="17.399999999999999">
       <c r="A348" s="6">
         <v>239947</v>
       </c>
@@ -8404,7 +8425,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="19">
+    <row r="349" spans="1:6" ht="17.399999999999999">
       <c r="A349" s="6">
         <v>239948</v>
       </c>
@@ -8424,7 +8445,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="19">
+    <row r="350" spans="1:6" ht="17.399999999999999">
       <c r="A350" s="6">
         <v>239949</v>
       </c>
@@ -8444,7 +8465,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="19">
+    <row r="351" spans="1:6" ht="17.399999999999999">
       <c r="A351" s="6">
         <v>239950</v>
       </c>
@@ -8464,7 +8485,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="19">
+    <row r="352" spans="1:6" ht="17.399999999999999">
       <c r="A352" s="6">
         <v>239951</v>
       </c>
@@ -8484,7 +8505,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="19">
+    <row r="353" spans="1:6" ht="17.399999999999999">
       <c r="A353" s="6">
         <v>239952</v>
       </c>
@@ -8504,7 +8525,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="19">
+    <row r="354" spans="1:6" ht="17.399999999999999">
       <c r="A354" s="6">
         <v>239953</v>
       </c>
@@ -8524,7 +8545,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="19">
+    <row r="355" spans="1:6" ht="17.399999999999999">
       <c r="A355" s="6">
         <v>239954</v>
       </c>
@@ -8544,7 +8565,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="19">
+    <row r="356" spans="1:6" ht="17.399999999999999">
       <c r="A356" s="6">
         <v>239955</v>
       </c>
@@ -8564,7 +8585,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="19">
+    <row r="357" spans="1:6" ht="17.399999999999999">
       <c r="A357" s="6">
         <v>239956</v>
       </c>
@@ -8584,7 +8605,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="19">
+    <row r="358" spans="1:6" ht="17.399999999999999">
       <c r="A358" s="6">
         <v>239957</v>
       </c>
@@ -8604,7 +8625,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="19">
+    <row r="359" spans="1:6" ht="17.399999999999999">
       <c r="A359" s="6">
         <v>239958</v>
       </c>
@@ -8624,7 +8645,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="19">
+    <row r="360" spans="1:6" ht="17.399999999999999">
       <c r="A360" s="6">
         <v>239959</v>
       </c>
@@ -8644,7 +8665,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="19">
+    <row r="361" spans="1:6" ht="17.399999999999999">
       <c r="A361" s="6">
         <v>239960</v>
       </c>
@@ -8664,7 +8685,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="19">
+    <row r="362" spans="1:6" ht="17.399999999999999">
       <c r="A362" s="6">
         <v>239961</v>
       </c>
@@ -8684,7 +8705,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="19">
+    <row r="363" spans="1:6" ht="17.399999999999999">
       <c r="A363" s="6">
         <v>239962</v>
       </c>
@@ -8704,7 +8725,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="19">
+    <row r="364" spans="1:6" ht="17.399999999999999">
       <c r="A364" s="6">
         <v>239963</v>
       </c>
@@ -8724,7 +8745,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="19">
+    <row r="365" spans="1:6" ht="17.399999999999999">
       <c r="A365" s="6">
         <v>239964</v>
       </c>
@@ -8744,7 +8765,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="19">
+    <row r="366" spans="1:6" ht="17.399999999999999">
       <c r="A366" s="6">
         <v>239965</v>
       </c>
@@ -8764,7 +8785,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="20" thickBot="1">
+    <row r="367" spans="1:6" ht="18" thickBot="1">
       <c r="A367" s="24">
         <v>239966</v>
       </c>

--- a/Oil price information/2556.xlsx
+++ b/Oil price information/2556.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniejuu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A03822-A75E-4B05-B56E-8A4E3856D28D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82DD6BA-65F7-9D44-B053-E035A396466F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19464" xr2:uid="{AE01BACC-D742-6B4E-AA39-DC40F97CACB1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AE01BACC-D742-6B4E-AA39-DC40F97CACB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2556" sheetId="1" r:id="rId1"/>
+    <sheet name="ราคาเฉลี่ย" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>วว/ดด/ปป</t>
   </si>
@@ -98,6 +99,48 @@
   <si>
     <t>ปี 2556</t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Ultra Force Diesel</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
 </sst>
 </file>
 
@@ -107,14 +150,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +169,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -471,6 +514,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,27 +569,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -844,32 +887,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723AB2D4-CB8A-D949-8BA2-BFDC506E63F6}">
   <dimension ref="A1:N367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="27" customWidth="1"/>
-    <col min="4" max="5" width="13.6328125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="1"/>
-    <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="1"/>
-    <col min="11" max="11" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6328125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="21.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="27" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" thickBot="1">
+    <row r="1" spans="1:13" ht="17" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -889,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.05" customHeight="1">
+    <row r="2" spans="1:13" ht="19" customHeight="1">
       <c r="A2" s="2">
         <v>239601</v>
       </c>
@@ -909,16 +952,16 @@
         <v>29.79</v>
       </c>
       <c r="G2" s="29"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" ht="20" customHeight="1" thickBot="1">
       <c r="A3" s="6">
         <v>239602</v>
       </c>
@@ -938,14 +981,14 @@
         <v>29.79</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" thickBot="1">
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="20" thickBot="1">
       <c r="A4" s="6">
         <v>239603</v>
       </c>
@@ -967,7 +1010,7 @@
       <c r="G4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="19.05" customHeight="1">
+    <row r="5" spans="1:13" ht="19" customHeight="1">
       <c r="A5" s="6">
         <v>239604</v>
       </c>
@@ -987,16 +1030,16 @@
         <v>29.79</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.05" customHeight="1" thickBot="1">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+    </row>
+    <row r="6" spans="1:13" ht="19" customHeight="1" thickBot="1">
       <c r="A6" s="6">
         <v>239605</v>
       </c>
@@ -1016,14 +1059,14 @@
         <v>29.79</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" thickBot="1">
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13" ht="20" thickBot="1">
       <c r="A7" s="6">
         <v>239606</v>
       </c>
@@ -1046,7 +1089,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="18" thickBot="1">
+    <row r="8" spans="1:13" ht="20" thickBot="1">
       <c r="A8" s="6">
         <v>239607</v>
       </c>
@@ -1085,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.399999999999999">
+    <row r="9" spans="1:13" ht="19">
       <c r="A9" s="6">
         <v>239608</v>
       </c>
@@ -1108,28 +1151,28 @@
       <c r="H9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="33">
         <f>AVERAGE(B2:B32)</f>
         <v>35.396129032258074</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="34">
         <f t="shared" ref="J9:M9" si="0">AVERAGE(C2:C32)</f>
         <v>37.846129032258069</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="34">
         <f t="shared" si="0"/>
         <v>32.396129032258067</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="34">
         <f t="shared" si="0"/>
         <v>21.68967741935483</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="35">
         <f t="shared" si="0"/>
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.399999999999999">
+    <row r="10" spans="1:13" ht="19">
       <c r="A10" s="6">
         <v>239609</v>
       </c>
@@ -1152,7 +1195,7 @@
       <c r="H10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="36">
         <f>AVERAGE(B33:B61)</f>
         <v>37.345517241379333</v>
       </c>
@@ -1168,12 +1211,12 @@
         <f t="shared" si="1"/>
         <v>22.897241379310337</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="37">
         <f t="shared" si="1"/>
         <v>29.948620689655176</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.399999999999999">
+    <row r="11" spans="1:13" ht="19">
       <c r="A11" s="6">
         <v>239610</v>
       </c>
@@ -1196,7 +1239,7 @@
       <c r="H11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="36">
         <f>AVERAGE(B62:B92)</f>
         <v>37.157419354838716</v>
       </c>
@@ -1212,12 +1255,12 @@
         <f t="shared" si="2"/>
         <v>22.909032258064506</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="37">
         <f t="shared" si="2"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.399999999999999">
+    <row r="12" spans="1:13" ht="19">
       <c r="A12" s="6">
         <v>239611</v>
       </c>
@@ -1240,7 +1283,7 @@
       <c r="H12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="36">
         <f>AVERAGE(B93:B122)</f>
         <v>35.356666666666648</v>
       </c>
@@ -1256,12 +1299,12 @@
         <f t="shared" si="3"/>
         <v>21.883333333333329</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="37">
         <f t="shared" si="3"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.399999999999999">
+    <row r="13" spans="1:13" ht="19">
       <c r="A13" s="6">
         <v>239612</v>
       </c>
@@ -1284,7 +1327,7 @@
       <c r="H13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="36">
         <f>AVERAGE(B123:B153)</f>
         <v>35.118709677419368</v>
       </c>
@@ -1300,12 +1343,12 @@
         <f t="shared" si="4"/>
         <v>21.818709677419335</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="37">
         <f t="shared" si="4"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.399999999999999">
+    <row r="14" spans="1:13" ht="19">
       <c r="A14" s="6">
         <v>239613</v>
       </c>
@@ -1328,7 +1371,7 @@
       <c r="H14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="36">
         <f>AVERAGE(B154:B183)</f>
         <v>36.199999999999982</v>
       </c>
@@ -1344,12 +1387,12 @@
         <f t="shared" si="5"/>
         <v>22.659999999999993</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="37">
         <f t="shared" si="5"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.399999999999999">
+    <row r="15" spans="1:13" ht="19">
       <c r="A15" s="6">
         <v>239614</v>
       </c>
@@ -1372,7 +1415,7 @@
       <c r="H15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="36">
         <f>AVERAGE(B184:B214)</f>
         <v>37.618709677419375</v>
       </c>
@@ -1388,12 +1431,12 @@
         <f t="shared" si="6"/>
         <v>23.567096774193548</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="37">
         <f t="shared" si="6"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.399999999999999">
+    <row r="16" spans="1:13" ht="19">
       <c r="A16" s="6">
         <v>239615</v>
       </c>
@@ -1416,7 +1459,7 @@
       <c r="H16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="36">
         <f>AVERAGE(B215:B245)</f>
         <v>36.986451612903231</v>
       </c>
@@ -1432,12 +1475,12 @@
         <f t="shared" si="7"/>
         <v>23.192903225806443</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="37">
         <f t="shared" si="7"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.399999999999999">
+    <row r="17" spans="1:14" ht="19">
       <c r="A17" s="6">
         <v>239616</v>
       </c>
@@ -1460,7 +1503,7 @@
       <c r="H17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="36">
         <f>AVERAGE(B246:B275)</f>
         <v>36.853333333333332</v>
       </c>
@@ -1476,12 +1519,12 @@
         <f t="shared" si="8"/>
         <v>23.27</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="37">
         <f t="shared" si="8"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.399999999999999">
+    <row r="18" spans="1:14" ht="19">
       <c r="A18" s="6">
         <v>239617</v>
       </c>
@@ -1504,7 +1547,7 @@
       <c r="H18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="36">
         <f>AVERAGE(B276:B306)</f>
         <v>36.115483870967736</v>
       </c>
@@ -1520,12 +1563,12 @@
         <f t="shared" si="9"/>
         <v>22.980000000000008</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="37">
         <f t="shared" si="9"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.399999999999999">
+    <row r="19" spans="1:14" ht="19">
       <c r="A19" s="6">
         <v>239618</v>
       </c>
@@ -1548,7 +1591,7 @@
       <c r="H19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="36">
         <f>AVERAGE(B307:B336)</f>
         <v>36.330000000000013</v>
       </c>
@@ -1564,12 +1607,12 @@
         <f t="shared" si="10"/>
         <v>23.190000000000005</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="37">
         <f t="shared" si="10"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" thickBot="1">
+    <row r="20" spans="1:14" ht="20" thickBot="1">
       <c r="A20" s="6">
         <v>239619</v>
       </c>
@@ -1592,7 +1635,7 @@
       <c r="H20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="38">
         <f>AVERAGE(B337:B367)</f>
         <v>37.292903225806455</v>
       </c>
@@ -1608,12 +1651,12 @@
         <f t="shared" si="11"/>
         <v>23.776774193548373</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="39">
         <f t="shared" si="11"/>
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" thickBot="1">
+    <row r="21" spans="1:14" ht="20" thickBot="1">
       <c r="A21" s="6">
         <v>239620</v>
       </c>
@@ -1636,7 +1679,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="17.399999999999999">
+    <row r="22" spans="1:14" ht="19">
       <c r="A22" s="6">
         <v>239621</v>
       </c>
@@ -1656,16 +1699,16 @@
         <v>29.79</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
-    </row>
-    <row r="23" spans="1:14" ht="18" thickBot="1">
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="48"/>
+    </row>
+    <row r="23" spans="1:14" ht="20" thickBot="1">
       <c r="A23" s="6">
         <v>239622</v>
       </c>
@@ -1685,14 +1728,14 @@
         <v>29.79</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" thickBot="1">
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+    </row>
+    <row r="24" spans="1:14" ht="20" thickBot="1">
       <c r="A24" s="6">
         <v>239623</v>
       </c>
@@ -1713,7 +1756,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:14" ht="18" thickBot="1">
+    <row r="25" spans="1:14" ht="20" thickBot="1">
       <c r="A25" s="6">
         <v>239624</v>
       </c>
@@ -1752,7 +1795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" thickBot="1">
+    <row r="26" spans="1:14" ht="20" thickBot="1">
       <c r="A26" s="6">
         <v>239625</v>
       </c>
@@ -1796,7 +1839,7 @@
         <v>29.96978142076485</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.399999999999999">
+    <row r="27" spans="1:14" ht="19">
       <c r="A27" s="6">
         <v>239626</v>
       </c>
@@ -1819,7 +1862,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:14" ht="17.399999999999999">
+    <row r="28" spans="1:14" ht="19">
       <c r="A28" s="6">
         <v>239627</v>
       </c>
@@ -1842,7 +1885,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="17.399999999999999">
+    <row r="29" spans="1:14" ht="19">
       <c r="A29" s="6">
         <v>239628</v>
       </c>
@@ -1870,7 +1913,7 @@
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
     </row>
-    <row r="30" spans="1:14" ht="17.399999999999999">
+    <row r="30" spans="1:14" ht="19">
       <c r="A30" s="6">
         <v>239629</v>
       </c>
@@ -1898,7 +1941,7 @@
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
     </row>
-    <row r="31" spans="1:14" ht="17.399999999999999">
+    <row r="31" spans="1:14" ht="19">
       <c r="A31" s="6">
         <v>239630</v>
       </c>
@@ -1926,7 +1969,7 @@
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
     </row>
-    <row r="32" spans="1:14" ht="18" thickBot="1">
+    <row r="32" spans="1:14" ht="20" thickBot="1">
       <c r="A32" s="24">
         <v>239631</v>
       </c>
@@ -1954,7 +1997,7 @@
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
     </row>
-    <row r="33" spans="1:14" ht="17.399999999999999">
+    <row r="33" spans="1:14" ht="19">
       <c r="A33" s="2">
         <v>239632</v>
       </c>
@@ -1982,7 +2025,7 @@
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
     </row>
-    <row r="34" spans="1:14" ht="17.399999999999999">
+    <row r="34" spans="1:14" ht="19">
       <c r="A34" s="6">
         <v>239633</v>
       </c>
@@ -2010,7 +2053,7 @@
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
     </row>
-    <row r="35" spans="1:14" ht="17.399999999999999">
+    <row r="35" spans="1:14" ht="19">
       <c r="A35" s="6">
         <v>239634</v>
       </c>
@@ -2038,7 +2081,7 @@
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
     </row>
-    <row r="36" spans="1:14" ht="17.399999999999999">
+    <row r="36" spans="1:14" ht="19">
       <c r="A36" s="6">
         <v>239635</v>
       </c>
@@ -2066,7 +2109,7 @@
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
     </row>
-    <row r="37" spans="1:14" ht="17.399999999999999">
+    <row r="37" spans="1:14" ht="19">
       <c r="A37" s="6">
         <v>239636</v>
       </c>
@@ -2094,7 +2137,7 @@
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
     </row>
-    <row r="38" spans="1:14" ht="17.399999999999999">
+    <row r="38" spans="1:14" ht="19">
       <c r="A38" s="6">
         <v>239637</v>
       </c>
@@ -2122,7 +2165,7 @@
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
     </row>
-    <row r="39" spans="1:14" ht="17.399999999999999">
+    <row r="39" spans="1:14" ht="19">
       <c r="A39" s="6">
         <v>239638</v>
       </c>
@@ -2150,7 +2193,7 @@
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
     </row>
-    <row r="40" spans="1:14" ht="17.399999999999999">
+    <row r="40" spans="1:14" ht="19">
       <c r="A40" s="6">
         <v>239639</v>
       </c>
@@ -2178,7 +2221,7 @@
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
     </row>
-    <row r="41" spans="1:14" ht="17.399999999999999">
+    <row r="41" spans="1:14" ht="19">
       <c r="A41" s="6">
         <v>239640</v>
       </c>
@@ -2206,7 +2249,7 @@
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
     </row>
-    <row r="42" spans="1:14" ht="17.399999999999999">
+    <row r="42" spans="1:14" ht="19">
       <c r="A42" s="6">
         <v>239641</v>
       </c>
@@ -2228,7 +2271,7 @@
       <c r="G42" s="5"/>
       <c r="N42" s="29"/>
     </row>
-    <row r="43" spans="1:14" ht="17.399999999999999">
+    <row r="43" spans="1:14" ht="19">
       <c r="A43" s="6">
         <v>239642</v>
       </c>
@@ -2250,7 +2293,7 @@
       <c r="G43" s="5"/>
       <c r="N43" s="29"/>
     </row>
-    <row r="44" spans="1:14" ht="17.399999999999999">
+    <row r="44" spans="1:14" ht="19">
       <c r="A44" s="6">
         <v>239643</v>
       </c>
@@ -2272,7 +2315,7 @@
       <c r="G44" s="5"/>
       <c r="N44" s="29"/>
     </row>
-    <row r="45" spans="1:14" ht="17.399999999999999">
+    <row r="45" spans="1:14" ht="19">
       <c r="A45" s="6">
         <v>239644</v>
       </c>
@@ -2294,7 +2337,7 @@
       <c r="G45" s="5"/>
       <c r="N45" s="29"/>
     </row>
-    <row r="46" spans="1:14" ht="17.399999999999999">
+    <row r="46" spans="1:14" ht="19">
       <c r="A46" s="6">
         <v>239645</v>
       </c>
@@ -2316,7 +2359,7 @@
       <c r="G46" s="5"/>
       <c r="N46" s="29"/>
     </row>
-    <row r="47" spans="1:14" ht="17.399999999999999">
+    <row r="47" spans="1:14" ht="19">
       <c r="A47" s="6">
         <v>239646</v>
       </c>
@@ -2338,7 +2381,7 @@
       <c r="G47" s="5"/>
       <c r="N47" s="29"/>
     </row>
-    <row r="48" spans="1:14" ht="17.399999999999999">
+    <row r="48" spans="1:14" ht="19">
       <c r="A48" s="6">
         <v>239647</v>
       </c>
@@ -2360,7 +2403,7 @@
       <c r="G48" s="5"/>
       <c r="N48" s="29"/>
     </row>
-    <row r="49" spans="1:14" ht="17.399999999999999">
+    <row r="49" spans="1:14" ht="19">
       <c r="A49" s="6">
         <v>239648</v>
       </c>
@@ -2382,7 +2425,7 @@
       <c r="G49" s="5"/>
       <c r="N49" s="29"/>
     </row>
-    <row r="50" spans="1:14" ht="17.399999999999999">
+    <row r="50" spans="1:14" ht="19">
       <c r="A50" s="6">
         <v>239649</v>
       </c>
@@ -2404,7 +2447,7 @@
       <c r="G50" s="5"/>
       <c r="N50" s="29"/>
     </row>
-    <row r="51" spans="1:14" ht="17.399999999999999">
+    <row r="51" spans="1:14" ht="19">
       <c r="A51" s="6">
         <v>239650</v>
       </c>
@@ -2426,7 +2469,7 @@
       <c r="G51" s="5"/>
       <c r="N51" s="29"/>
     </row>
-    <row r="52" spans="1:14" ht="17.399999999999999">
+    <row r="52" spans="1:14" ht="19">
       <c r="A52" s="6">
         <v>239651</v>
       </c>
@@ -2448,7 +2491,7 @@
       <c r="G52" s="5"/>
       <c r="N52" s="29"/>
     </row>
-    <row r="53" spans="1:14" ht="17.399999999999999">
+    <row r="53" spans="1:14" ht="19">
       <c r="A53" s="6">
         <v>239652</v>
       </c>
@@ -2470,7 +2513,7 @@
       <c r="G53" s="5"/>
       <c r="N53" s="29"/>
     </row>
-    <row r="54" spans="1:14" ht="17.399999999999999">
+    <row r="54" spans="1:14" ht="19">
       <c r="A54" s="6">
         <v>239653</v>
       </c>
@@ -2492,7 +2535,7 @@
       <c r="G54" s="5"/>
       <c r="N54" s="29"/>
     </row>
-    <row r="55" spans="1:14" ht="17.399999999999999">
+    <row r="55" spans="1:14" ht="19">
       <c r="A55" s="6">
         <v>239654</v>
       </c>
@@ -2514,7 +2557,7 @@
       <c r="G55" s="5"/>
       <c r="N55" s="29"/>
     </row>
-    <row r="56" spans="1:14" ht="17.399999999999999">
+    <row r="56" spans="1:14" ht="19">
       <c r="A56" s="6">
         <v>239655</v>
       </c>
@@ -2536,7 +2579,7 @@
       <c r="G56" s="5"/>
       <c r="N56" s="29"/>
     </row>
-    <row r="57" spans="1:14" ht="17.399999999999999">
+    <row r="57" spans="1:14" ht="19">
       <c r="A57" s="6">
         <v>239656</v>
       </c>
@@ -2557,7 +2600,7 @@
       </c>
       <c r="N57" s="29"/>
     </row>
-    <row r="58" spans="1:14" ht="17.399999999999999">
+    <row r="58" spans="1:14" ht="19">
       <c r="A58" s="6">
         <v>239657</v>
       </c>
@@ -2578,7 +2621,7 @@
       </c>
       <c r="N58" s="29"/>
     </row>
-    <row r="59" spans="1:14" ht="17.399999999999999">
+    <row r="59" spans="1:14" ht="19">
       <c r="A59" s="6">
         <v>239658</v>
       </c>
@@ -2599,7 +2642,7 @@
       </c>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:14" ht="17.399999999999999">
+    <row r="60" spans="1:14" ht="19">
       <c r="A60" s="6">
         <v>239659</v>
       </c>
@@ -2620,7 +2663,7 @@
       </c>
       <c r="N60" s="29"/>
     </row>
-    <row r="61" spans="1:14" ht="18" thickBot="1">
+    <row r="61" spans="1:14" ht="20" thickBot="1">
       <c r="A61" s="24">
         <v>239660</v>
       </c>
@@ -2641,7 +2684,7 @@
       </c>
       <c r="N61" s="29"/>
     </row>
-    <row r="62" spans="1:14" ht="17.399999999999999">
+    <row r="62" spans="1:14" ht="19">
       <c r="A62" s="2">
         <v>239661</v>
       </c>
@@ -2662,7 +2705,7 @@
       </c>
       <c r="N62" s="29"/>
     </row>
-    <row r="63" spans="1:14" ht="17.399999999999999">
+    <row r="63" spans="1:14" ht="19">
       <c r="A63" s="6">
         <v>239662</v>
       </c>
@@ -2683,7 +2726,7 @@
       </c>
       <c r="N63" s="29"/>
     </row>
-    <row r="64" spans="1:14" ht="17.399999999999999">
+    <row r="64" spans="1:14" ht="19">
       <c r="A64" s="6">
         <v>239663</v>
       </c>
@@ -2704,7 +2747,7 @@
       </c>
       <c r="N64" s="29"/>
     </row>
-    <row r="65" spans="1:14" ht="17.399999999999999">
+    <row r="65" spans="1:14" ht="19">
       <c r="A65" s="6">
         <v>239664</v>
       </c>
@@ -2725,7 +2768,7 @@
       </c>
       <c r="N65" s="29"/>
     </row>
-    <row r="66" spans="1:14" ht="17.399999999999999">
+    <row r="66" spans="1:14" ht="19">
       <c r="A66" s="6">
         <v>239665</v>
       </c>
@@ -2746,7 +2789,7 @@
       </c>
       <c r="N66" s="29"/>
     </row>
-    <row r="67" spans="1:14" ht="17.399999999999999">
+    <row r="67" spans="1:14" ht="19">
       <c r="A67" s="6">
         <v>239666</v>
       </c>
@@ -2767,7 +2810,7 @@
       </c>
       <c r="N67" s="29"/>
     </row>
-    <row r="68" spans="1:14" ht="17.399999999999999">
+    <row r="68" spans="1:14" ht="19">
       <c r="A68" s="6">
         <v>239667</v>
       </c>
@@ -2788,7 +2831,7 @@
       </c>
       <c r="N68" s="29"/>
     </row>
-    <row r="69" spans="1:14" ht="17.399999999999999">
+    <row r="69" spans="1:14" ht="19">
       <c r="A69" s="6">
         <v>239668</v>
       </c>
@@ -2809,7 +2852,7 @@
       </c>
       <c r="N69" s="29"/>
     </row>
-    <row r="70" spans="1:14" ht="17.399999999999999">
+    <row r="70" spans="1:14" ht="19">
       <c r="A70" s="6">
         <v>239669</v>
       </c>
@@ -2830,7 +2873,7 @@
       </c>
       <c r="N70" s="29"/>
     </row>
-    <row r="71" spans="1:14" ht="17.399999999999999">
+    <row r="71" spans="1:14" ht="19">
       <c r="A71" s="6">
         <v>239670</v>
       </c>
@@ -2851,7 +2894,7 @@
       </c>
       <c r="N71" s="29"/>
     </row>
-    <row r="72" spans="1:14" ht="17.399999999999999">
+    <row r="72" spans="1:14" ht="19">
       <c r="A72" s="6">
         <v>239671</v>
       </c>
@@ -2872,7 +2915,7 @@
       </c>
       <c r="N72" s="29"/>
     </row>
-    <row r="73" spans="1:14" ht="17.399999999999999">
+    <row r="73" spans="1:14" ht="19">
       <c r="A73" s="6">
         <v>239672</v>
       </c>
@@ -2893,7 +2936,7 @@
       </c>
       <c r="N73" s="29"/>
     </row>
-    <row r="74" spans="1:14" ht="17.399999999999999">
+    <row r="74" spans="1:14" ht="19">
       <c r="A74" s="6">
         <v>239673</v>
       </c>
@@ -2913,7 +2956,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="17.399999999999999">
+    <row r="75" spans="1:14" ht="19">
       <c r="A75" s="6">
         <v>239674</v>
       </c>
@@ -2933,7 +2976,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="17.399999999999999">
+    <row r="76" spans="1:14" ht="19">
       <c r="A76" s="6">
         <v>239675</v>
       </c>
@@ -2953,7 +2996,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="17.399999999999999">
+    <row r="77" spans="1:14" ht="19">
       <c r="A77" s="6">
         <v>239676</v>
       </c>
@@ -2973,7 +3016,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="17.399999999999999">
+    <row r="78" spans="1:14" ht="19">
       <c r="A78" s="6">
         <v>239677</v>
       </c>
@@ -2993,7 +3036,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="17.399999999999999">
+    <row r="79" spans="1:14" ht="19">
       <c r="A79" s="6">
         <v>239678</v>
       </c>
@@ -3013,7 +3056,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="17.399999999999999">
+    <row r="80" spans="1:14" ht="19">
       <c r="A80" s="6">
         <v>239679</v>
       </c>
@@ -3033,7 +3076,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17.399999999999999">
+    <row r="81" spans="1:8" ht="19">
       <c r="A81" s="6">
         <v>239680</v>
       </c>
@@ -3053,7 +3096,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17.399999999999999">
+    <row r="82" spans="1:8" ht="19">
       <c r="A82" s="6">
         <v>239681</v>
       </c>
@@ -3073,7 +3116,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17.399999999999999">
+    <row r="83" spans="1:8" ht="19">
       <c r="A83" s="6">
         <v>239682</v>
       </c>
@@ -3093,7 +3136,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17.399999999999999">
+    <row r="84" spans="1:8" ht="19">
       <c r="A84" s="6">
         <v>239683</v>
       </c>
@@ -3113,7 +3156,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17.399999999999999">
+    <row r="85" spans="1:8" ht="19">
       <c r="A85" s="6">
         <v>239684</v>
       </c>
@@ -3133,7 +3176,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17.399999999999999">
+    <row r="86" spans="1:8" ht="19">
       <c r="A86" s="6">
         <v>239685</v>
       </c>
@@ -3153,7 +3196,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17.399999999999999">
+    <row r="87" spans="1:8" ht="19">
       <c r="A87" s="6">
         <v>239686</v>
       </c>
@@ -3173,7 +3216,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17.399999999999999">
+    <row r="88" spans="1:8" ht="19">
       <c r="A88" s="6">
         <v>239687</v>
       </c>
@@ -3193,7 +3236,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17.399999999999999">
+    <row r="89" spans="1:8" ht="19">
       <c r="A89" s="6">
         <v>239688</v>
       </c>
@@ -3214,7 +3257,7 @@
       </c>
       <c r="H89" s="29"/>
     </row>
-    <row r="90" spans="1:8" ht="17.399999999999999">
+    <row r="90" spans="1:8" ht="19">
       <c r="A90" s="6">
         <v>239689</v>
       </c>
@@ -3235,7 +3278,7 @@
       </c>
       <c r="H90" s="29"/>
     </row>
-    <row r="91" spans="1:8" ht="17.399999999999999">
+    <row r="91" spans="1:8" ht="19">
       <c r="A91" s="6">
         <v>239690</v>
       </c>
@@ -3256,7 +3299,7 @@
       </c>
       <c r="H91" s="29"/>
     </row>
-    <row r="92" spans="1:8" ht="18" thickBot="1">
+    <row r="92" spans="1:8" ht="20" thickBot="1">
       <c r="A92" s="24">
         <v>239691</v>
       </c>
@@ -3277,7 +3320,7 @@
       </c>
       <c r="H92" s="29"/>
     </row>
-    <row r="93" spans="1:8" ht="17.399999999999999">
+    <row r="93" spans="1:8" ht="19">
       <c r="A93" s="2">
         <v>239692</v>
       </c>
@@ -3298,7 +3341,7 @@
       </c>
       <c r="H93" s="29"/>
     </row>
-    <row r="94" spans="1:8" ht="17.399999999999999">
+    <row r="94" spans="1:8" ht="19">
       <c r="A94" s="6">
         <v>239693</v>
       </c>
@@ -3319,7 +3362,7 @@
       </c>
       <c r="H94" s="29"/>
     </row>
-    <row r="95" spans="1:8" ht="17.399999999999999">
+    <row r="95" spans="1:8" ht="19">
       <c r="A95" s="6">
         <v>239694</v>
       </c>
@@ -3340,7 +3383,7 @@
       </c>
       <c r="H95" s="29"/>
     </row>
-    <row r="96" spans="1:8" ht="17.399999999999999">
+    <row r="96" spans="1:8" ht="19">
       <c r="A96" s="6">
         <v>239695</v>
       </c>
@@ -3361,7 +3404,7 @@
       </c>
       <c r="H96" s="29"/>
     </row>
-    <row r="97" spans="1:8" ht="17.399999999999999">
+    <row r="97" spans="1:8" ht="19">
       <c r="A97" s="6">
         <v>239696</v>
       </c>
@@ -3382,7 +3425,7 @@
       </c>
       <c r="H97" s="29"/>
     </row>
-    <row r="98" spans="1:8" ht="17.399999999999999">
+    <row r="98" spans="1:8" ht="19">
       <c r="A98" s="6">
         <v>239697</v>
       </c>
@@ -3402,7 +3445,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17.399999999999999">
+    <row r="99" spans="1:8" ht="19">
       <c r="A99" s="6">
         <v>239698</v>
       </c>
@@ -3422,7 +3465,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17.399999999999999">
+    <row r="100" spans="1:8" ht="19">
       <c r="A100" s="6">
         <v>239699</v>
       </c>
@@ -3442,7 +3485,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.399999999999999">
+    <row r="101" spans="1:8" ht="19">
       <c r="A101" s="6">
         <v>239700</v>
       </c>
@@ -3462,7 +3505,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17.399999999999999">
+    <row r="102" spans="1:8" ht="19">
       <c r="A102" s="6">
         <v>239701</v>
       </c>
@@ -3482,7 +3525,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17.399999999999999">
+    <row r="103" spans="1:8" ht="19">
       <c r="A103" s="6">
         <v>239702</v>
       </c>
@@ -3502,7 +3545,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17.399999999999999">
+    <row r="104" spans="1:8" ht="19">
       <c r="A104" s="6">
         <v>239703</v>
       </c>
@@ -3522,7 +3565,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17.399999999999999">
+    <row r="105" spans="1:8" ht="19">
       <c r="A105" s="6">
         <v>239704</v>
       </c>
@@ -3542,7 +3585,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17.399999999999999">
+    <row r="106" spans="1:8" ht="19">
       <c r="A106" s="6">
         <v>239705</v>
       </c>
@@ -3562,7 +3605,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17.399999999999999">
+    <row r="107" spans="1:8" ht="19">
       <c r="A107" s="6">
         <v>239706</v>
       </c>
@@ -3582,7 +3625,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17.399999999999999">
+    <row r="108" spans="1:8" ht="19">
       <c r="A108" s="6">
         <v>239707</v>
       </c>
@@ -3602,7 +3645,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17.399999999999999">
+    <row r="109" spans="1:8" ht="19">
       <c r="A109" s="6">
         <v>239708</v>
       </c>
@@ -3622,7 +3665,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17.399999999999999">
+    <row r="110" spans="1:8" ht="19">
       <c r="A110" s="6">
         <v>239709</v>
       </c>
@@ -3642,7 +3685,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17.399999999999999">
+    <row r="111" spans="1:8" ht="19">
       <c r="A111" s="6">
         <v>239710</v>
       </c>
@@ -3662,7 +3705,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17.399999999999999">
+    <row r="112" spans="1:8" ht="19">
       <c r="A112" s="6">
         <v>239711</v>
       </c>
@@ -3682,7 +3725,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.399999999999999">
+    <row r="113" spans="1:6" ht="19">
       <c r="A113" s="6">
         <v>239712</v>
       </c>
@@ -3702,7 +3745,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.399999999999999">
+    <row r="114" spans="1:6" ht="19">
       <c r="A114" s="6">
         <v>239713</v>
       </c>
@@ -3722,7 +3765,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.399999999999999">
+    <row r="115" spans="1:6" ht="19">
       <c r="A115" s="6">
         <v>239714</v>
       </c>
@@ -3742,7 +3785,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.399999999999999">
+    <row r="116" spans="1:6" ht="19">
       <c r="A116" s="6">
         <v>239715</v>
       </c>
@@ -3762,7 +3805,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.399999999999999">
+    <row r="117" spans="1:6" ht="19">
       <c r="A117" s="6">
         <v>239716</v>
       </c>
@@ -3782,7 +3825,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.399999999999999">
+    <row r="118" spans="1:6" ht="19">
       <c r="A118" s="6">
         <v>239717</v>
       </c>
@@ -3802,7 +3845,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.399999999999999">
+    <row r="119" spans="1:6" ht="19">
       <c r="A119" s="6">
         <v>239718</v>
       </c>
@@ -3822,7 +3865,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.399999999999999">
+    <row r="120" spans="1:6" ht="19">
       <c r="A120" s="6">
         <v>239719</v>
       </c>
@@ -3842,7 +3885,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.399999999999999">
+    <row r="121" spans="1:6" ht="19">
       <c r="A121" s="6">
         <v>239720</v>
       </c>
@@ -3862,7 +3905,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18" thickBot="1">
+    <row r="122" spans="1:6" ht="20" thickBot="1">
       <c r="A122" s="24">
         <v>239721</v>
       </c>
@@ -3882,7 +3925,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.399999999999999">
+    <row r="123" spans="1:6" ht="19">
       <c r="A123" s="2">
         <v>239722</v>
       </c>
@@ -3902,7 +3945,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.399999999999999">
+    <row r="124" spans="1:6" ht="19">
       <c r="A124" s="6">
         <v>239723</v>
       </c>
@@ -3922,7 +3965,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.399999999999999">
+    <row r="125" spans="1:6" ht="19">
       <c r="A125" s="6">
         <v>239724</v>
       </c>
@@ -3942,7 +3985,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.399999999999999">
+    <row r="126" spans="1:6" ht="19">
       <c r="A126" s="6">
         <v>239725</v>
       </c>
@@ -3962,7 +4005,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.399999999999999">
+    <row r="127" spans="1:6" ht="19">
       <c r="A127" s="6">
         <v>239726</v>
       </c>
@@ -3982,7 +4025,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.399999999999999">
+    <row r="128" spans="1:6" ht="19">
       <c r="A128" s="6">
         <v>239727</v>
       </c>
@@ -4002,7 +4045,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.399999999999999">
+    <row r="129" spans="1:6" ht="19">
       <c r="A129" s="6">
         <v>239728</v>
       </c>
@@ -4022,7 +4065,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.399999999999999">
+    <row r="130" spans="1:6" ht="19">
       <c r="A130" s="6">
         <v>239729</v>
       </c>
@@ -4042,7 +4085,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.399999999999999">
+    <row r="131" spans="1:6" ht="19">
       <c r="A131" s="6">
         <v>239730</v>
       </c>
@@ -4062,7 +4105,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.399999999999999">
+    <row r="132" spans="1:6" ht="19">
       <c r="A132" s="6">
         <v>239731</v>
       </c>
@@ -4082,7 +4125,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.399999999999999">
+    <row r="133" spans="1:6" ht="19">
       <c r="A133" s="6">
         <v>239732</v>
       </c>
@@ -4102,7 +4145,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.399999999999999">
+    <row r="134" spans="1:6" ht="19">
       <c r="A134" s="6">
         <v>239733</v>
       </c>
@@ -4122,7 +4165,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="17.399999999999999">
+    <row r="135" spans="1:6" ht="19">
       <c r="A135" s="6">
         <v>239734</v>
       </c>
@@ -4142,7 +4185,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="17.399999999999999">
+    <row r="136" spans="1:6" ht="19">
       <c r="A136" s="6">
         <v>239735</v>
       </c>
@@ -4162,7 +4205,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17.399999999999999">
+    <row r="137" spans="1:6" ht="19">
       <c r="A137" s="6">
         <v>239736</v>
       </c>
@@ -4182,7 +4225,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.399999999999999">
+    <row r="138" spans="1:6" ht="19">
       <c r="A138" s="6">
         <v>239737</v>
       </c>
@@ -4202,7 +4245,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="17.399999999999999">
+    <row r="139" spans="1:6" ht="19">
       <c r="A139" s="6">
         <v>239738</v>
       </c>
@@ -4222,7 +4265,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="17.399999999999999">
+    <row r="140" spans="1:6" ht="19">
       <c r="A140" s="6">
         <v>239739</v>
       </c>
@@ -4242,7 +4285,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="17.399999999999999">
+    <row r="141" spans="1:6" ht="19">
       <c r="A141" s="6">
         <v>239740</v>
       </c>
@@ -4262,7 +4305,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="17.399999999999999">
+    <row r="142" spans="1:6" ht="19">
       <c r="A142" s="6">
         <v>239741</v>
       </c>
@@ -4282,7 +4325,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="17.399999999999999">
+    <row r="143" spans="1:6" ht="19">
       <c r="A143" s="6">
         <v>239742</v>
       </c>
@@ -4302,7 +4345,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="17.399999999999999">
+    <row r="144" spans="1:6" ht="19">
       <c r="A144" s="6">
         <v>239743</v>
       </c>
@@ -4322,7 +4365,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17.399999999999999">
+    <row r="145" spans="1:8" ht="19">
       <c r="A145" s="6">
         <v>239744</v>
       </c>
@@ -4342,7 +4385,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17.399999999999999">
+    <row r="146" spans="1:8" ht="19">
       <c r="A146" s="6">
         <v>239745</v>
       </c>
@@ -4363,7 +4406,7 @@
       </c>
       <c r="H146" s="29"/>
     </row>
-    <row r="147" spans="1:8" ht="17.399999999999999">
+    <row r="147" spans="1:8" ht="19">
       <c r="A147" s="6">
         <v>239746</v>
       </c>
@@ -4384,7 +4427,7 @@
       </c>
       <c r="H147" s="29"/>
     </row>
-    <row r="148" spans="1:8" ht="17.399999999999999">
+    <row r="148" spans="1:8" ht="19">
       <c r="A148" s="6">
         <v>239747</v>
       </c>
@@ -4405,7 +4448,7 @@
       </c>
       <c r="H148" s="29"/>
     </row>
-    <row r="149" spans="1:8" ht="17.399999999999999">
+    <row r="149" spans="1:8" ht="19">
       <c r="A149" s="6">
         <v>239748</v>
       </c>
@@ -4426,7 +4469,7 @@
       </c>
       <c r="H149" s="29"/>
     </row>
-    <row r="150" spans="1:8" ht="17.399999999999999">
+    <row r="150" spans="1:8" ht="19">
       <c r="A150" s="6">
         <v>239749</v>
       </c>
@@ -4447,7 +4490,7 @@
       </c>
       <c r="H150" s="29"/>
     </row>
-    <row r="151" spans="1:8" ht="17.399999999999999">
+    <row r="151" spans="1:8" ht="19">
       <c r="A151" s="6">
         <v>239750</v>
       </c>
@@ -4467,7 +4510,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17.399999999999999">
+    <row r="152" spans="1:8" ht="19">
       <c r="A152" s="6">
         <v>239751</v>
       </c>
@@ -4487,7 +4530,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="18" thickBot="1">
+    <row r="153" spans="1:8" ht="20" thickBot="1">
       <c r="A153" s="24">
         <v>239752</v>
       </c>
@@ -4507,7 +4550,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17.399999999999999">
+    <row r="154" spans="1:8" ht="19">
       <c r="A154" s="2">
         <v>239753</v>
       </c>
@@ -4527,7 +4570,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="17.399999999999999">
+    <row r="155" spans="1:8" ht="19">
       <c r="A155" s="6">
         <v>239754</v>
       </c>
@@ -4547,7 +4590,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="17.399999999999999">
+    <row r="156" spans="1:8" ht="19">
       <c r="A156" s="6">
         <v>239755</v>
       </c>
@@ -4567,7 +4610,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17.399999999999999">
+    <row r="157" spans="1:8" ht="19">
       <c r="A157" s="6">
         <v>239756</v>
       </c>
@@ -4587,7 +4630,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17.399999999999999">
+    <row r="158" spans="1:8" ht="19">
       <c r="A158" s="6">
         <v>239757</v>
       </c>
@@ -4607,7 +4650,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17.399999999999999">
+    <row r="159" spans="1:8" ht="19">
       <c r="A159" s="6">
         <v>239758</v>
       </c>
@@ -4627,7 +4670,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17.399999999999999">
+    <row r="160" spans="1:8" ht="19">
       <c r="A160" s="6">
         <v>239759</v>
       </c>
@@ -4647,7 +4690,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="17.399999999999999">
+    <row r="161" spans="1:6" ht="19">
       <c r="A161" s="6">
         <v>239760</v>
       </c>
@@ -4667,7 +4710,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="17.399999999999999">
+    <row r="162" spans="1:6" ht="19">
       <c r="A162" s="6">
         <v>239761</v>
       </c>
@@ -4687,7 +4730,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="17.399999999999999">
+    <row r="163" spans="1:6" ht="19">
       <c r="A163" s="6">
         <v>239762</v>
       </c>
@@ -4707,7 +4750,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="17.399999999999999">
+    <row r="164" spans="1:6" ht="19">
       <c r="A164" s="6">
         <v>239763</v>
       </c>
@@ -4727,7 +4770,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="17.399999999999999">
+    <row r="165" spans="1:6" ht="19">
       <c r="A165" s="6">
         <v>239764</v>
       </c>
@@ -4747,7 +4790,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="17.399999999999999">
+    <row r="166" spans="1:6" ht="19">
       <c r="A166" s="6">
         <v>239765</v>
       </c>
@@ -4767,7 +4810,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="17.399999999999999">
+    <row r="167" spans="1:6" ht="19">
       <c r="A167" s="6">
         <v>239766</v>
       </c>
@@ -4787,7 +4830,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="17.399999999999999">
+    <row r="168" spans="1:6" ht="19">
       <c r="A168" s="6">
         <v>239767</v>
       </c>
@@ -4807,7 +4850,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="17.399999999999999">
+    <row r="169" spans="1:6" ht="19">
       <c r="A169" s="6">
         <v>239768</v>
       </c>
@@ -4827,7 +4870,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="17.399999999999999">
+    <row r="170" spans="1:6" ht="19">
       <c r="A170" s="6">
         <v>239769</v>
       </c>
@@ -4847,7 +4890,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="17.399999999999999">
+    <row r="171" spans="1:6" ht="19">
       <c r="A171" s="6">
         <v>239770</v>
       </c>
@@ -4867,7 +4910,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="17.399999999999999">
+    <row r="172" spans="1:6" ht="19">
       <c r="A172" s="6">
         <v>239771</v>
       </c>
@@ -4887,7 +4930,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="17.399999999999999">
+    <row r="173" spans="1:6" ht="19">
       <c r="A173" s="6">
         <v>239772</v>
       </c>
@@ -4907,7 +4950,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="17.399999999999999">
+    <row r="174" spans="1:6" ht="19">
       <c r="A174" s="6">
         <v>239773</v>
       </c>
@@ -4927,7 +4970,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="17.399999999999999">
+    <row r="175" spans="1:6" ht="19">
       <c r="A175" s="6">
         <v>239774</v>
       </c>
@@ -4947,7 +4990,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="17.399999999999999">
+    <row r="176" spans="1:6" ht="19">
       <c r="A176" s="6">
         <v>239775</v>
       </c>
@@ -4967,7 +5010,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="17.399999999999999">
+    <row r="177" spans="1:6" ht="19">
       <c r="A177" s="6">
         <v>239776</v>
       </c>
@@ -4987,7 +5030,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="17.399999999999999">
+    <row r="178" spans="1:6" ht="19">
       <c r="A178" s="6">
         <v>239777</v>
       </c>
@@ -5007,7 +5050,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="17.399999999999999">
+    <row r="179" spans="1:6" ht="19">
       <c r="A179" s="6">
         <v>239778</v>
       </c>
@@ -5027,7 +5070,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="17.399999999999999">
+    <row r="180" spans="1:6" ht="19">
       <c r="A180" s="6">
         <v>239779</v>
       </c>
@@ -5047,7 +5090,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="17.399999999999999">
+    <row r="181" spans="1:6" ht="19">
       <c r="A181" s="6">
         <v>239780</v>
       </c>
@@ -5067,7 +5110,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="17.399999999999999">
+    <row r="182" spans="1:6" ht="19">
       <c r="A182" s="6">
         <v>239781</v>
       </c>
@@ -5087,7 +5130,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="18" thickBot="1">
+    <row r="183" spans="1:6" ht="20" thickBot="1">
       <c r="A183" s="24">
         <v>239782</v>
       </c>
@@ -5107,7 +5150,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="17.399999999999999">
+    <row r="184" spans="1:6" ht="19">
       <c r="A184" s="2">
         <v>239783</v>
       </c>
@@ -5127,7 +5170,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="17.399999999999999">
+    <row r="185" spans="1:6" ht="19">
       <c r="A185" s="6">
         <v>239784</v>
       </c>
@@ -5147,7 +5190,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="17.399999999999999">
+    <row r="186" spans="1:6" ht="19">
       <c r="A186" s="6">
         <v>239785</v>
       </c>
@@ -5167,7 +5210,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="17.399999999999999">
+    <row r="187" spans="1:6" ht="19">
       <c r="A187" s="6">
         <v>239786</v>
       </c>
@@ -5187,7 +5230,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="17.399999999999999">
+    <row r="188" spans="1:6" ht="19">
       <c r="A188" s="6">
         <v>239787</v>
       </c>
@@ -5207,7 +5250,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="17.399999999999999">
+    <row r="189" spans="1:6" ht="19">
       <c r="A189" s="6">
         <v>239788</v>
       </c>
@@ -5227,7 +5270,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="17.399999999999999">
+    <row r="190" spans="1:6" ht="19">
       <c r="A190" s="6">
         <v>239789</v>
       </c>
@@ -5247,7 +5290,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="17.399999999999999">
+    <row r="191" spans="1:6" ht="19">
       <c r="A191" s="6">
         <v>239790</v>
       </c>
@@ -5267,7 +5310,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="17.399999999999999">
+    <row r="192" spans="1:6" ht="19">
       <c r="A192" s="6">
         <v>239791</v>
       </c>
@@ -5287,7 +5330,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="17.399999999999999">
+    <row r="193" spans="1:8" ht="19">
       <c r="A193" s="6">
         <v>239792</v>
       </c>
@@ -5307,7 +5350,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="17.399999999999999">
+    <row r="194" spans="1:8" ht="19">
       <c r="A194" s="6">
         <v>239793</v>
       </c>
@@ -5327,7 +5370,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="17.399999999999999">
+    <row r="195" spans="1:8" ht="19">
       <c r="A195" s="6">
         <v>239794</v>
       </c>
@@ -5347,7 +5390,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="17.399999999999999">
+    <row r="196" spans="1:8" ht="19">
       <c r="A196" s="6">
         <v>239795</v>
       </c>
@@ -5367,7 +5410,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="17.399999999999999">
+    <row r="197" spans="1:8" ht="19">
       <c r="A197" s="6">
         <v>239796</v>
       </c>
@@ -5387,7 +5430,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="17.399999999999999">
+    <row r="198" spans="1:8" ht="19">
       <c r="A198" s="6">
         <v>239797</v>
       </c>
@@ -5407,7 +5450,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="17.399999999999999">
+    <row r="199" spans="1:8" ht="19">
       <c r="A199" s="6">
         <v>239798</v>
       </c>
@@ -5427,7 +5470,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="17.399999999999999">
+    <row r="200" spans="1:8" ht="19">
       <c r="A200" s="6">
         <v>239799</v>
       </c>
@@ -5447,7 +5490,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="17.399999999999999">
+    <row r="201" spans="1:8" ht="19">
       <c r="A201" s="6">
         <v>239800</v>
       </c>
@@ -5467,7 +5510,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="17.399999999999999">
+    <row r="202" spans="1:8" ht="19">
       <c r="A202" s="6">
         <v>239801</v>
       </c>
@@ -5488,7 +5531,7 @@
       </c>
       <c r="H202" s="29"/>
     </row>
-    <row r="203" spans="1:8" ht="17.399999999999999">
+    <row r="203" spans="1:8" ht="19">
       <c r="A203" s="6">
         <v>239802</v>
       </c>
@@ -5509,7 +5552,7 @@
       </c>
       <c r="H203" s="29"/>
     </row>
-    <row r="204" spans="1:8" ht="17.399999999999999">
+    <row r="204" spans="1:8" ht="19">
       <c r="A204" s="6">
         <v>239803</v>
       </c>
@@ -5530,7 +5573,7 @@
       </c>
       <c r="H204" s="29"/>
     </row>
-    <row r="205" spans="1:8" ht="17.399999999999999">
+    <row r="205" spans="1:8" ht="19">
       <c r="A205" s="6">
         <v>239804</v>
       </c>
@@ -5551,7 +5594,7 @@
       </c>
       <c r="H205" s="29"/>
     </row>
-    <row r="206" spans="1:8" ht="17.399999999999999">
+    <row r="206" spans="1:8" ht="19">
       <c r="A206" s="6">
         <v>239805</v>
       </c>
@@ -5572,7 +5615,7 @@
       </c>
       <c r="H206" s="29"/>
     </row>
-    <row r="207" spans="1:8" ht="17.399999999999999">
+    <row r="207" spans="1:8" ht="19">
       <c r="A207" s="6">
         <v>239806</v>
       </c>
@@ -5593,7 +5636,7 @@
       </c>
       <c r="H207" s="29"/>
     </row>
-    <row r="208" spans="1:8" ht="17.399999999999999">
+    <row r="208" spans="1:8" ht="19">
       <c r="A208" s="6">
         <v>239807</v>
       </c>
@@ -5614,7 +5657,7 @@
       </c>
       <c r="H208" s="29"/>
     </row>
-    <row r="209" spans="1:8" ht="17.399999999999999">
+    <row r="209" spans="1:8" ht="19">
       <c r="A209" s="6">
         <v>239808</v>
       </c>
@@ -5635,7 +5678,7 @@
       </c>
       <c r="H209" s="29"/>
     </row>
-    <row r="210" spans="1:8" ht="17.399999999999999">
+    <row r="210" spans="1:8" ht="19">
       <c r="A210" s="6">
         <v>239809</v>
       </c>
@@ -5656,7 +5699,7 @@
       </c>
       <c r="H210" s="29"/>
     </row>
-    <row r="211" spans="1:8" ht="17.399999999999999">
+    <row r="211" spans="1:8" ht="19">
       <c r="A211" s="6">
         <v>239810</v>
       </c>
@@ -5677,7 +5720,7 @@
       </c>
       <c r="H211" s="29"/>
     </row>
-    <row r="212" spans="1:8" ht="17.399999999999999">
+    <row r="212" spans="1:8" ht="19">
       <c r="A212" s="6">
         <v>239811</v>
       </c>
@@ -5698,7 +5741,7 @@
       </c>
       <c r="H212" s="29"/>
     </row>
-    <row r="213" spans="1:8" ht="17.399999999999999">
+    <row r="213" spans="1:8" ht="19">
       <c r="A213" s="6">
         <v>239812</v>
       </c>
@@ -5719,7 +5762,7 @@
       </c>
       <c r="H213" s="29"/>
     </row>
-    <row r="214" spans="1:8" ht="18" thickBot="1">
+    <row r="214" spans="1:8" ht="20" thickBot="1">
       <c r="A214" s="24">
         <v>239813</v>
       </c>
@@ -5740,7 +5783,7 @@
       </c>
       <c r="H214" s="29"/>
     </row>
-    <row r="215" spans="1:8" ht="17.399999999999999">
+    <row r="215" spans="1:8" ht="19">
       <c r="A215" s="2">
         <v>239814</v>
       </c>
@@ -5761,7 +5804,7 @@
       </c>
       <c r="H215" s="29"/>
     </row>
-    <row r="216" spans="1:8" ht="17.399999999999999">
+    <row r="216" spans="1:8" ht="19">
       <c r="A216" s="6">
         <v>239815</v>
       </c>
@@ -5782,7 +5825,7 @@
       </c>
       <c r="H216" s="29"/>
     </row>
-    <row r="217" spans="1:8" ht="17.399999999999999">
+    <row r="217" spans="1:8" ht="19">
       <c r="A217" s="6">
         <v>239816</v>
       </c>
@@ -5803,7 +5846,7 @@
       </c>
       <c r="H217" s="29"/>
     </row>
-    <row r="218" spans="1:8" ht="17.399999999999999">
+    <row r="218" spans="1:8" ht="19">
       <c r="A218" s="6">
         <v>239817</v>
       </c>
@@ -5824,7 +5867,7 @@
       </c>
       <c r="H218" s="29"/>
     </row>
-    <row r="219" spans="1:8" ht="17.399999999999999">
+    <row r="219" spans="1:8" ht="19">
       <c r="A219" s="6">
         <v>239818</v>
       </c>
@@ -5845,7 +5888,7 @@
       </c>
       <c r="H219" s="29"/>
     </row>
-    <row r="220" spans="1:8" ht="17.399999999999999">
+    <row r="220" spans="1:8" ht="19">
       <c r="A220" s="6">
         <v>239819</v>
       </c>
@@ -5865,7 +5908,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="17.399999999999999">
+    <row r="221" spans="1:8" ht="19">
       <c r="A221" s="6">
         <v>239820</v>
       </c>
@@ -5885,7 +5928,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="17.399999999999999">
+    <row r="222" spans="1:8" ht="19">
       <c r="A222" s="6">
         <v>239821</v>
       </c>
@@ -5905,7 +5948,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="17.399999999999999">
+    <row r="223" spans="1:8" ht="19">
       <c r="A223" s="6">
         <v>239822</v>
       </c>
@@ -5925,7 +5968,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="17.399999999999999">
+    <row r="224" spans="1:8" ht="19">
       <c r="A224" s="6">
         <v>239823</v>
       </c>
@@ -5945,7 +5988,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="17.399999999999999">
+    <row r="225" spans="1:6" ht="19">
       <c r="A225" s="6">
         <v>239824</v>
       </c>
@@ -5965,7 +6008,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="17.399999999999999">
+    <row r="226" spans="1:6" ht="19">
       <c r="A226" s="6">
         <v>239825</v>
       </c>
@@ -5985,7 +6028,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="17.399999999999999">
+    <row r="227" spans="1:6" ht="19">
       <c r="A227" s="6">
         <v>239826</v>
       </c>
@@ -6005,7 +6048,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="17.399999999999999">
+    <row r="228" spans="1:6" ht="19">
       <c r="A228" s="6">
         <v>239827</v>
       </c>
@@ -6025,7 +6068,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="17.399999999999999">
+    <row r="229" spans="1:6" ht="19">
       <c r="A229" s="6">
         <v>239828</v>
       </c>
@@ -6045,7 +6088,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="17.399999999999999">
+    <row r="230" spans="1:6" ht="19">
       <c r="A230" s="6">
         <v>239829</v>
       </c>
@@ -6065,7 +6108,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="17.399999999999999">
+    <row r="231" spans="1:6" ht="19">
       <c r="A231" s="6">
         <v>239830</v>
       </c>
@@ -6085,7 +6128,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="17.399999999999999">
+    <row r="232" spans="1:6" ht="19">
       <c r="A232" s="6">
         <v>239831</v>
       </c>
@@ -6105,7 +6148,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="17.399999999999999">
+    <row r="233" spans="1:6" ht="19">
       <c r="A233" s="6">
         <v>239832</v>
       </c>
@@ -6125,7 +6168,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="17.399999999999999">
+    <row r="234" spans="1:6" ht="19">
       <c r="A234" s="6">
         <v>239833</v>
       </c>
@@ -6145,7 +6188,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="17.399999999999999">
+    <row r="235" spans="1:6" ht="19">
       <c r="A235" s="6">
         <v>239834</v>
       </c>
@@ -6165,7 +6208,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="17.399999999999999">
+    <row r="236" spans="1:6" ht="19">
       <c r="A236" s="6">
         <v>239835</v>
       </c>
@@ -6185,7 +6228,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="17.399999999999999">
+    <row r="237" spans="1:6" ht="19">
       <c r="A237" s="6">
         <v>239836</v>
       </c>
@@ -6205,7 +6248,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="17.399999999999999">
+    <row r="238" spans="1:6" ht="19">
       <c r="A238" s="6">
         <v>239837</v>
       </c>
@@ -6225,7 +6268,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="17.399999999999999">
+    <row r="239" spans="1:6" ht="19">
       <c r="A239" s="6">
         <v>239838</v>
       </c>
@@ -6245,7 +6288,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="17.399999999999999">
+    <row r="240" spans="1:6" ht="19">
       <c r="A240" s="6">
         <v>239839</v>
       </c>
@@ -6265,7 +6308,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="17.399999999999999">
+    <row r="241" spans="1:6" ht="19">
       <c r="A241" s="6">
         <v>239840</v>
       </c>
@@ -6285,7 +6328,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="17.399999999999999">
+    <row r="242" spans="1:6" ht="19">
       <c r="A242" s="6">
         <v>239841</v>
       </c>
@@ -6305,7 +6348,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="17.399999999999999">
+    <row r="243" spans="1:6" ht="19">
       <c r="A243" s="6">
         <v>239842</v>
       </c>
@@ -6325,7 +6368,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="17.399999999999999">
+    <row r="244" spans="1:6" ht="19">
       <c r="A244" s="6">
         <v>239843</v>
       </c>
@@ -6345,7 +6388,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="18" thickBot="1">
+    <row r="245" spans="1:6" ht="20" thickBot="1">
       <c r="A245" s="24">
         <v>239844</v>
       </c>
@@ -6365,7 +6408,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="17.399999999999999">
+    <row r="246" spans="1:6" ht="19">
       <c r="A246" s="2">
         <v>239845</v>
       </c>
@@ -6385,7 +6428,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="17.399999999999999">
+    <row r="247" spans="1:6" ht="19">
       <c r="A247" s="6">
         <v>239846</v>
       </c>
@@ -6405,7 +6448,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="17.399999999999999">
+    <row r="248" spans="1:6" ht="19">
       <c r="A248" s="6">
         <v>239847</v>
       </c>
@@ -6425,7 +6468,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="17.399999999999999">
+    <row r="249" spans="1:6" ht="19">
       <c r="A249" s="6">
         <v>239848</v>
       </c>
@@ -6445,7 +6488,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="17.399999999999999">
+    <row r="250" spans="1:6" ht="19">
       <c r="A250" s="6">
         <v>239849</v>
       </c>
@@ -6465,7 +6508,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="17.399999999999999">
+    <row r="251" spans="1:6" ht="19">
       <c r="A251" s="6">
         <v>239850</v>
       </c>
@@ -6485,7 +6528,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="17.399999999999999">
+    <row r="252" spans="1:6" ht="19">
       <c r="A252" s="6">
         <v>239851</v>
       </c>
@@ -6505,7 +6548,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="17.399999999999999">
+    <row r="253" spans="1:6" ht="19">
       <c r="A253" s="6">
         <v>239852</v>
       </c>
@@ -6525,7 +6568,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="17.399999999999999">
+    <row r="254" spans="1:6" ht="19">
       <c r="A254" s="6">
         <v>239853</v>
       </c>
@@ -6545,7 +6588,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="17.399999999999999">
+    <row r="255" spans="1:6" ht="19">
       <c r="A255" s="6">
         <v>239854</v>
       </c>
@@ -6565,7 +6608,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="17.399999999999999">
+    <row r="256" spans="1:6" ht="19">
       <c r="A256" s="6">
         <v>239855</v>
       </c>
@@ -6585,7 +6628,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="17.399999999999999">
+    <row r="257" spans="1:6" ht="19">
       <c r="A257" s="6">
         <v>239856</v>
       </c>
@@ -6605,7 +6648,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="17.399999999999999">
+    <row r="258" spans="1:6" ht="19">
       <c r="A258" s="6">
         <v>239857</v>
       </c>
@@ -6625,7 +6668,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="17.399999999999999">
+    <row r="259" spans="1:6" ht="19">
       <c r="A259" s="6">
         <v>239858</v>
       </c>
@@ -6645,7 +6688,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="17.399999999999999">
+    <row r="260" spans="1:6" ht="19">
       <c r="A260" s="6">
         <v>239859</v>
       </c>
@@ -6665,7 +6708,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="17.399999999999999">
+    <row r="261" spans="1:6" ht="19">
       <c r="A261" s="6">
         <v>239860</v>
       </c>
@@ -6685,7 +6728,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="17.399999999999999">
+    <row r="262" spans="1:6" ht="19">
       <c r="A262" s="6">
         <v>239861</v>
       </c>
@@ -6705,7 +6748,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="17.399999999999999">
+    <row r="263" spans="1:6" ht="19">
       <c r="A263" s="6">
         <v>239862</v>
       </c>
@@ -6725,7 +6768,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="17.399999999999999">
+    <row r="264" spans="1:6" ht="19">
       <c r="A264" s="6">
         <v>239863</v>
       </c>
@@ -6745,7 +6788,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="17.399999999999999">
+    <row r="265" spans="1:6" ht="19">
       <c r="A265" s="6">
         <v>239864</v>
       </c>
@@ -6765,7 +6808,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="17.399999999999999">
+    <row r="266" spans="1:6" ht="19">
       <c r="A266" s="6">
         <v>239865</v>
       </c>
@@ -6785,7 +6828,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="17.399999999999999">
+    <row r="267" spans="1:6" ht="19">
       <c r="A267" s="6">
         <v>239866</v>
       </c>
@@ -6805,7 +6848,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="17.399999999999999">
+    <row r="268" spans="1:6" ht="19">
       <c r="A268" s="6">
         <v>239867</v>
       </c>
@@ -6825,7 +6868,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="17.399999999999999">
+    <row r="269" spans="1:6" ht="19">
       <c r="A269" s="6">
         <v>239868</v>
       </c>
@@ -6845,7 +6888,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="17.399999999999999">
+    <row r="270" spans="1:6" ht="19">
       <c r="A270" s="6">
         <v>239869</v>
       </c>
@@ -6865,7 +6908,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="17.399999999999999">
+    <row r="271" spans="1:6" ht="19">
       <c r="A271" s="6">
         <v>239870</v>
       </c>
@@ -6885,7 +6928,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="17.399999999999999">
+    <row r="272" spans="1:6" ht="19">
       <c r="A272" s="6">
         <v>239871</v>
       </c>
@@ -6905,7 +6948,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="17.399999999999999">
+    <row r="273" spans="1:6" ht="19">
       <c r="A273" s="6">
         <v>239872</v>
       </c>
@@ -6925,7 +6968,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="17.399999999999999">
+    <row r="274" spans="1:6" ht="19">
       <c r="A274" s="6">
         <v>239873</v>
       </c>
@@ -6945,7 +6988,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="18" thickBot="1">
+    <row r="275" spans="1:6" ht="20" thickBot="1">
       <c r="A275" s="24">
         <v>239874</v>
       </c>
@@ -6965,7 +7008,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="17.399999999999999">
+    <row r="276" spans="1:6" ht="19">
       <c r="A276" s="2">
         <v>239875</v>
       </c>
@@ -6985,7 +7028,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="17.399999999999999">
+    <row r="277" spans="1:6" ht="19">
       <c r="A277" s="6">
         <v>239876</v>
       </c>
@@ -7005,7 +7048,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="17.399999999999999">
+    <row r="278" spans="1:6" ht="19">
       <c r="A278" s="6">
         <v>239877</v>
       </c>
@@ -7025,7 +7068,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="17.399999999999999">
+    <row r="279" spans="1:6" ht="19">
       <c r="A279" s="6">
         <v>239878</v>
       </c>
@@ -7045,7 +7088,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="17.399999999999999">
+    <row r="280" spans="1:6" ht="19">
       <c r="A280" s="6">
         <v>239879</v>
       </c>
@@ -7065,7 +7108,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="17.399999999999999">
+    <row r="281" spans="1:6" ht="19">
       <c r="A281" s="6">
         <v>239880</v>
       </c>
@@ -7085,7 +7128,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="17.399999999999999">
+    <row r="282" spans="1:6" ht="19">
       <c r="A282" s="6">
         <v>239881</v>
       </c>
@@ -7105,7 +7148,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="17.399999999999999">
+    <row r="283" spans="1:6" ht="19">
       <c r="A283" s="6">
         <v>239882</v>
       </c>
@@ -7125,7 +7168,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="17.399999999999999">
+    <row r="284" spans="1:6" ht="19">
       <c r="A284" s="6">
         <v>239883</v>
       </c>
@@ -7145,7 +7188,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="17.399999999999999">
+    <row r="285" spans="1:6" ht="19">
       <c r="A285" s="6">
         <v>239884</v>
       </c>
@@ -7165,7 +7208,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="17.399999999999999">
+    <row r="286" spans="1:6" ht="19">
       <c r="A286" s="6">
         <v>239885</v>
       </c>
@@ -7185,7 +7228,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="17.399999999999999">
+    <row r="287" spans="1:6" ht="19">
       <c r="A287" s="6">
         <v>239886</v>
       </c>
@@ -7205,7 +7248,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="17.399999999999999">
+    <row r="288" spans="1:6" ht="19">
       <c r="A288" s="6">
         <v>239887</v>
       </c>
@@ -7225,7 +7268,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="17.399999999999999">
+    <row r="289" spans="1:6" ht="19">
       <c r="A289" s="6">
         <v>239888</v>
       </c>
@@ -7245,7 +7288,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="17.399999999999999">
+    <row r="290" spans="1:6" ht="19">
       <c r="A290" s="6">
         <v>239889</v>
       </c>
@@ -7265,7 +7308,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="17.399999999999999">
+    <row r="291" spans="1:6" ht="19">
       <c r="A291" s="6">
         <v>239890</v>
       </c>
@@ -7285,7 +7328,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="17.399999999999999">
+    <row r="292" spans="1:6" ht="19">
       <c r="A292" s="6">
         <v>239891</v>
       </c>
@@ -7305,7 +7348,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="17.399999999999999">
+    <row r="293" spans="1:6" ht="19">
       <c r="A293" s="6">
         <v>239892</v>
       </c>
@@ -7325,7 +7368,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="17.399999999999999">
+    <row r="294" spans="1:6" ht="19">
       <c r="A294" s="6">
         <v>239893</v>
       </c>
@@ -7345,7 +7388,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="17.399999999999999">
+    <row r="295" spans="1:6" ht="19">
       <c r="A295" s="6">
         <v>239894</v>
       </c>
@@ -7365,7 +7408,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="17.399999999999999">
+    <row r="296" spans="1:6" ht="19">
       <c r="A296" s="6">
         <v>239895</v>
       </c>
@@ -7385,7 +7428,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="17.399999999999999">
+    <row r="297" spans="1:6" ht="19">
       <c r="A297" s="6">
         <v>239896</v>
       </c>
@@ -7405,7 +7448,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="17.399999999999999">
+    <row r="298" spans="1:6" ht="19">
       <c r="A298" s="6">
         <v>239897</v>
       </c>
@@ -7425,7 +7468,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="17.399999999999999">
+    <row r="299" spans="1:6" ht="19">
       <c r="A299" s="6">
         <v>239898</v>
       </c>
@@ -7445,7 +7488,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="17.399999999999999">
+    <row r="300" spans="1:6" ht="19">
       <c r="A300" s="6">
         <v>239899</v>
       </c>
@@ -7465,7 +7508,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="17.399999999999999">
+    <row r="301" spans="1:6" ht="19">
       <c r="A301" s="6">
         <v>239900</v>
       </c>
@@ -7485,7 +7528,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="17.399999999999999">
+    <row r="302" spans="1:6" ht="19">
       <c r="A302" s="6">
         <v>239901</v>
       </c>
@@ -7505,7 +7548,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="17.399999999999999">
+    <row r="303" spans="1:6" ht="19">
       <c r="A303" s="6">
         <v>239902</v>
       </c>
@@ -7525,7 +7568,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="17.399999999999999">
+    <row r="304" spans="1:6" ht="19">
       <c r="A304" s="6">
         <v>239903</v>
       </c>
@@ -7545,7 +7588,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="17.399999999999999">
+    <row r="305" spans="1:6" ht="19">
       <c r="A305" s="6">
         <v>239904</v>
       </c>
@@ -7565,7 +7608,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="18" thickBot="1">
+    <row r="306" spans="1:6" ht="20" thickBot="1">
       <c r="A306" s="24">
         <v>239905</v>
       </c>
@@ -7585,7 +7628,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="17.399999999999999">
+    <row r="307" spans="1:6" ht="19">
       <c r="A307" s="2">
         <v>239906</v>
       </c>
@@ -7605,7 +7648,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="17.399999999999999">
+    <row r="308" spans="1:6" ht="19">
       <c r="A308" s="6">
         <v>239907</v>
       </c>
@@ -7625,7 +7668,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="17.399999999999999">
+    <row r="309" spans="1:6" ht="19">
       <c r="A309" s="6">
         <v>239908</v>
       </c>
@@ -7645,7 +7688,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="17.399999999999999">
+    <row r="310" spans="1:6" ht="19">
       <c r="A310" s="6">
         <v>239909</v>
       </c>
@@ -7665,7 +7708,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="17.399999999999999">
+    <row r="311" spans="1:6" ht="19">
       <c r="A311" s="6">
         <v>239910</v>
       </c>
@@ -7685,7 +7728,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="17.399999999999999">
+    <row r="312" spans="1:6" ht="19">
       <c r="A312" s="6">
         <v>239911</v>
       </c>
@@ -7705,7 +7748,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="17.399999999999999">
+    <row r="313" spans="1:6" ht="19">
       <c r="A313" s="6">
         <v>239912</v>
       </c>
@@ -7725,7 +7768,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="17.399999999999999">
+    <row r="314" spans="1:6" ht="19">
       <c r="A314" s="6">
         <v>239913</v>
       </c>
@@ -7745,7 +7788,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="17.399999999999999">
+    <row r="315" spans="1:6" ht="19">
       <c r="A315" s="6">
         <v>239914</v>
       </c>
@@ -7765,7 +7808,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="17.399999999999999">
+    <row r="316" spans="1:6" ht="19">
       <c r="A316" s="6">
         <v>239915</v>
       </c>
@@ -7785,7 +7828,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="17.399999999999999">
+    <row r="317" spans="1:6" ht="19">
       <c r="A317" s="6">
         <v>239916</v>
       </c>
@@ -7805,7 +7848,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="17.399999999999999">
+    <row r="318" spans="1:6" ht="19">
       <c r="A318" s="6">
         <v>239917</v>
       </c>
@@ -7825,7 +7868,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="17.399999999999999">
+    <row r="319" spans="1:6" ht="19">
       <c r="A319" s="6">
         <v>239918</v>
       </c>
@@ -7845,7 +7888,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="17.399999999999999">
+    <row r="320" spans="1:6" ht="19">
       <c r="A320" s="6">
         <v>239919</v>
       </c>
@@ -7865,7 +7908,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="17.399999999999999">
+    <row r="321" spans="1:6" ht="19">
       <c r="A321" s="6">
         <v>239920</v>
       </c>
@@ -7885,7 +7928,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="17.399999999999999">
+    <row r="322" spans="1:6" ht="19">
       <c r="A322" s="6">
         <v>239921</v>
       </c>
@@ -7905,7 +7948,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="17.399999999999999">
+    <row r="323" spans="1:6" ht="19">
       <c r="A323" s="6">
         <v>239922</v>
       </c>
@@ -7925,7 +7968,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="17.399999999999999">
+    <row r="324" spans="1:6" ht="19">
       <c r="A324" s="6">
         <v>239923</v>
       </c>
@@ -7945,7 +7988,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="17.399999999999999">
+    <row r="325" spans="1:6" ht="19">
       <c r="A325" s="6">
         <v>239924</v>
       </c>
@@ -7965,7 +8008,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="17.399999999999999">
+    <row r="326" spans="1:6" ht="19">
       <c r="A326" s="6">
         <v>239925</v>
       </c>
@@ -7985,7 +8028,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="17.399999999999999">
+    <row r="327" spans="1:6" ht="19">
       <c r="A327" s="6">
         <v>239926</v>
       </c>
@@ -8005,7 +8048,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="17.399999999999999">
+    <row r="328" spans="1:6" ht="19">
       <c r="A328" s="6">
         <v>239927</v>
       </c>
@@ -8025,7 +8068,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="17.399999999999999">
+    <row r="329" spans="1:6" ht="19">
       <c r="A329" s="6">
         <v>239928</v>
       </c>
@@ -8045,7 +8088,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="17.399999999999999">
+    <row r="330" spans="1:6" ht="19">
       <c r="A330" s="6">
         <v>239929</v>
       </c>
@@ -8065,7 +8108,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="17.399999999999999">
+    <row r="331" spans="1:6" ht="19">
       <c r="A331" s="6">
         <v>239930</v>
       </c>
@@ -8085,7 +8128,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="17.399999999999999">
+    <row r="332" spans="1:6" ht="19">
       <c r="A332" s="6">
         <v>239931</v>
       </c>
@@ -8105,7 +8148,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="17.399999999999999">
+    <row r="333" spans="1:6" ht="19">
       <c r="A333" s="6">
         <v>239932</v>
       </c>
@@ -8125,7 +8168,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="17.399999999999999">
+    <row r="334" spans="1:6" ht="19">
       <c r="A334" s="6">
         <v>239933</v>
       </c>
@@ -8145,7 +8188,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="17.399999999999999">
+    <row r="335" spans="1:6" ht="19">
       <c r="A335" s="6">
         <v>239934</v>
       </c>
@@ -8165,7 +8208,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="18" thickBot="1">
+    <row r="336" spans="1:6" ht="20" thickBot="1">
       <c r="A336" s="24">
         <v>239935</v>
       </c>
@@ -8185,7 +8228,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="17.399999999999999">
+    <row r="337" spans="1:6" ht="19">
       <c r="A337" s="2">
         <v>239936</v>
       </c>
@@ -8205,7 +8248,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="17.399999999999999">
+    <row r="338" spans="1:6" ht="19">
       <c r="A338" s="6">
         <v>239937</v>
       </c>
@@ -8225,7 +8268,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="17.399999999999999">
+    <row r="339" spans="1:6" ht="19">
       <c r="A339" s="6">
         <v>239938</v>
       </c>
@@ -8245,7 +8288,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="17.399999999999999">
+    <row r="340" spans="1:6" ht="19">
       <c r="A340" s="6">
         <v>239939</v>
       </c>
@@ -8265,7 +8308,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="17.399999999999999">
+    <row r="341" spans="1:6" ht="19">
       <c r="A341" s="6">
         <v>239940</v>
       </c>
@@ -8285,7 +8328,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="17.399999999999999">
+    <row r="342" spans="1:6" ht="19">
       <c r="A342" s="6">
         <v>239941</v>
       </c>
@@ -8305,7 +8348,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="17.399999999999999">
+    <row r="343" spans="1:6" ht="19">
       <c r="A343" s="6">
         <v>239942</v>
       </c>
@@ -8325,7 +8368,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="17.399999999999999">
+    <row r="344" spans="1:6" ht="19">
       <c r="A344" s="6">
         <v>239943</v>
       </c>
@@ -8345,7 +8388,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="17.399999999999999">
+    <row r="345" spans="1:6" ht="19">
       <c r="A345" s="6">
         <v>239944</v>
       </c>
@@ -8365,7 +8408,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="17.399999999999999">
+    <row r="346" spans="1:6" ht="19">
       <c r="A346" s="6">
         <v>239945</v>
       </c>
@@ -8385,7 +8428,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="17.399999999999999">
+    <row r="347" spans="1:6" ht="19">
       <c r="A347" s="6">
         <v>239946</v>
       </c>
@@ -8405,7 +8448,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="17.399999999999999">
+    <row r="348" spans="1:6" ht="19">
       <c r="A348" s="6">
         <v>239947</v>
       </c>
@@ -8425,7 +8468,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="17.399999999999999">
+    <row r="349" spans="1:6" ht="19">
       <c r="A349" s="6">
         <v>239948</v>
       </c>
@@ -8445,7 +8488,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="17.399999999999999">
+    <row r="350" spans="1:6" ht="19">
       <c r="A350" s="6">
         <v>239949</v>
       </c>
@@ -8465,7 +8508,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="17.399999999999999">
+    <row r="351" spans="1:6" ht="19">
       <c r="A351" s="6">
         <v>239950</v>
       </c>
@@ -8485,7 +8528,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="17.399999999999999">
+    <row r="352" spans="1:6" ht="19">
       <c r="A352" s="6">
         <v>239951</v>
       </c>
@@ -8505,7 +8548,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="17.399999999999999">
+    <row r="353" spans="1:6" ht="19">
       <c r="A353" s="6">
         <v>239952</v>
       </c>
@@ -8525,7 +8568,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="17.399999999999999">
+    <row r="354" spans="1:6" ht="19">
       <c r="A354" s="6">
         <v>239953</v>
       </c>
@@ -8545,7 +8588,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="17.399999999999999">
+    <row r="355" spans="1:6" ht="19">
       <c r="A355" s="6">
         <v>239954</v>
       </c>
@@ -8565,7 +8608,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="17.399999999999999">
+    <row r="356" spans="1:6" ht="19">
       <c r="A356" s="6">
         <v>239955</v>
       </c>
@@ -8585,7 +8628,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="17.399999999999999">
+    <row r="357" spans="1:6" ht="19">
       <c r="A357" s="6">
         <v>239956</v>
       </c>
@@ -8605,7 +8648,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="17.399999999999999">
+    <row r="358" spans="1:6" ht="19">
       <c r="A358" s="6">
         <v>239957</v>
       </c>
@@ -8625,7 +8668,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="17.399999999999999">
+    <row r="359" spans="1:6" ht="19">
       <c r="A359" s="6">
         <v>239958</v>
       </c>
@@ -8645,7 +8688,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="17.399999999999999">
+    <row r="360" spans="1:6" ht="19">
       <c r="A360" s="6">
         <v>239959</v>
       </c>
@@ -8665,7 +8708,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="17.399999999999999">
+    <row r="361" spans="1:6" ht="19">
       <c r="A361" s="6">
         <v>239960</v>
       </c>
@@ -8685,7 +8728,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="17.399999999999999">
+    <row r="362" spans="1:6" ht="19">
       <c r="A362" s="6">
         <v>239961</v>
       </c>
@@ -8705,7 +8748,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="17.399999999999999">
+    <row r="363" spans="1:6" ht="19">
       <c r="A363" s="6">
         <v>239962</v>
       </c>
@@ -8725,7 +8768,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="17.399999999999999">
+    <row r="364" spans="1:6" ht="19">
       <c r="A364" s="6">
         <v>239963</v>
       </c>
@@ -8745,7 +8788,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="17.399999999999999">
+    <row r="365" spans="1:6" ht="19">
       <c r="A365" s="6">
         <v>239964</v>
       </c>
@@ -8765,7 +8808,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="17.399999999999999">
+    <row r="366" spans="1:6" ht="19">
       <c r="A366" s="6">
         <v>239965</v>
       </c>
@@ -8785,7 +8828,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="18" thickBot="1">
+    <row r="367" spans="1:6" ht="20" thickBot="1">
       <c r="A367" s="24">
         <v>239966</v>
       </c>
@@ -8813,4 +8856,340 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8F1185-9609-1B4D-9429-74E6AED5B2CA}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="33">
+        <f>AVERAGE('2556'!B2:B32)</f>
+        <v>35.396129032258074</v>
+      </c>
+      <c r="C2" s="34">
+        <f>AVERAGE('2556'!C2:C32)</f>
+        <v>37.846129032258069</v>
+      </c>
+      <c r="D2" s="34">
+        <f>AVERAGE('2556'!D2:D32)</f>
+        <v>32.396129032258067</v>
+      </c>
+      <c r="E2" s="34">
+        <f>AVERAGE('2556'!E2:E32)</f>
+        <v>21.68967741935483</v>
+      </c>
+      <c r="F2" s="35">
+        <f>AVERAGE('2556'!F2:F32)</f>
+        <v>29.789999999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="36">
+        <f>AVERAGE('2556'!B33:B61)</f>
+        <v>37.345517241379333</v>
+      </c>
+      <c r="C3" s="16">
+        <f>AVERAGE('2556'!C33:C61)</f>
+        <v>39.795517241379294</v>
+      </c>
+      <c r="D3" s="16">
+        <f>AVERAGE('2556'!D33:D61)</f>
+        <v>34.345517241379326</v>
+      </c>
+      <c r="E3" s="16">
+        <f>AVERAGE('2556'!E33:E61)</f>
+        <v>22.897241379310337</v>
+      </c>
+      <c r="F3" s="37">
+        <f>AVERAGE('2556'!F33:F61)</f>
+        <v>29.948620689655176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="36">
+        <f>AVERAGE('2556'!B62:B92)</f>
+        <v>37.157419354838716</v>
+      </c>
+      <c r="C4" s="16">
+        <f>AVERAGE('2556'!C62:C92)</f>
+        <v>39.607419354838697</v>
+      </c>
+      <c r="D4" s="16">
+        <f>AVERAGE('2556'!D62:D92)</f>
+        <v>34.45741935483872</v>
+      </c>
+      <c r="E4" s="16">
+        <f>AVERAGE('2556'!E62:E92)</f>
+        <v>22.909032258064506</v>
+      </c>
+      <c r="F4" s="37">
+        <f>AVERAGE('2556'!F62:F92)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="36">
+        <f>AVERAGE('2556'!B93:B122)</f>
+        <v>35.356666666666648</v>
+      </c>
+      <c r="C5" s="16">
+        <f>AVERAGE('2556'!C93:C122)</f>
+        <v>37.806666666666665</v>
+      </c>
+      <c r="D5" s="16">
+        <f>AVERAGE('2556'!C93:C122)</f>
+        <v>37.806666666666665</v>
+      </c>
+      <c r="E5" s="16">
+        <f>AVERAGE('2556'!E93:E122)</f>
+        <v>21.883333333333329</v>
+      </c>
+      <c r="F5" s="37">
+        <f>AVERAGE('2556'!F93:F122)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="36">
+        <f>AVERAGE('2556'!B123:B153)</f>
+        <v>35.118709677419368</v>
+      </c>
+      <c r="C6" s="16">
+        <f>AVERAGE('2556'!C123:C153)</f>
+        <v>37.568709677419342</v>
+      </c>
+      <c r="D6" s="16">
+        <f>AVERAGE('2556'!D123:D153)</f>
+        <v>32.618709677419368</v>
+      </c>
+      <c r="E6" s="16">
+        <f>AVERAGE('2556'!E123:E153)</f>
+        <v>21.818709677419335</v>
+      </c>
+      <c r="F6" s="37">
+        <f>AVERAGE('2556'!F123:F153)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="36">
+        <f>AVERAGE('2556'!B154:B183)</f>
+        <v>36.199999999999982</v>
+      </c>
+      <c r="C7" s="16">
+        <f>AVERAGE('2556'!C154:C183)</f>
+        <v>38.649999999999991</v>
+      </c>
+      <c r="D7" s="16">
+        <f>AVERAGE('2556'!D154:D183)</f>
+        <v>33.699999999999982</v>
+      </c>
+      <c r="E7" s="16">
+        <f>AVERAGE('2556'!E154:E183)</f>
+        <v>22.659999999999993</v>
+      </c>
+      <c r="F7" s="37">
+        <f>AVERAGE('2556'!F154:F183)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="36">
+        <f>AVERAGE('2556'!B184:B214)</f>
+        <v>37.618709677419375</v>
+      </c>
+      <c r="C8" s="16">
+        <f>AVERAGE('2556'!C184:C214)</f>
+        <v>40.068709677419349</v>
+      </c>
+      <c r="D8" s="16">
+        <f>AVERAGE('2556'!D184:D214)</f>
+        <v>35.118709677419375</v>
+      </c>
+      <c r="E8" s="16">
+        <f>AVERAGE('2556'!E184:E214)</f>
+        <v>23.567096774193548</v>
+      </c>
+      <c r="F8" s="37">
+        <f>AVERAGE('2556'!F184:F214)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="36">
+        <f>AVERAGE('2556'!B215:B245)</f>
+        <v>36.986451612903231</v>
+      </c>
+      <c r="C9" s="16">
+        <f>AVERAGE('2556'!C215:C245)</f>
+        <v>39.436451612903234</v>
+      </c>
+      <c r="D9" s="16">
+        <f>AVERAGE('2556'!D215:D245)</f>
+        <v>34.486451612903224</v>
+      </c>
+      <c r="E9" s="16">
+        <f>AVERAGE('2556'!E215:E245)</f>
+        <v>23.192903225806443</v>
+      </c>
+      <c r="F9" s="37">
+        <f>AVERAGE('2556'!F215:F245)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="36">
+        <f>AVERAGE('2556'!B246:B275)</f>
+        <v>36.853333333333332</v>
+      </c>
+      <c r="C10" s="16">
+        <f>AVERAGE('2556'!C246:C275)</f>
+        <v>39.303333333333335</v>
+      </c>
+      <c r="D10" s="16">
+        <f>AVERAGE('2556'!D246:D275)</f>
+        <v>34.353333333333325</v>
+      </c>
+      <c r="E10" s="16">
+        <f>AVERAGE('2556'!E246:E275)</f>
+        <v>23.27</v>
+      </c>
+      <c r="F10" s="37">
+        <f>AVERAGE('2556'!F246:F275)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="36">
+        <f>AVERAGE('2556'!B276:B306)</f>
+        <v>36.115483870967736</v>
+      </c>
+      <c r="C11" s="16">
+        <f>AVERAGE('2556'!C276:C306)</f>
+        <v>38.565483870967739</v>
+      </c>
+      <c r="D11" s="16">
+        <f>AVERAGE('2556'!D276:D306)</f>
+        <v>33.615483870967736</v>
+      </c>
+      <c r="E11" s="16">
+        <f>AVERAGE('2556'!E276:E306)</f>
+        <v>22.980000000000008</v>
+      </c>
+      <c r="F11" s="37">
+        <f>AVERAGE('2556'!F276:F306)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="36">
+        <f>AVERAGE('2556'!B307:B336)</f>
+        <v>36.330000000000013</v>
+      </c>
+      <c r="C12" s="16">
+        <f>AVERAGE('2556'!C307:C336)</f>
+        <v>38.779999999999987</v>
+      </c>
+      <c r="D12" s="16">
+        <f>AVERAGE('2556'!D307:D336)</f>
+        <v>33.830000000000013</v>
+      </c>
+      <c r="E12" s="16">
+        <f>AVERAGE('2556'!E307:E336)</f>
+        <v>23.190000000000005</v>
+      </c>
+      <c r="F12" s="37">
+        <f>AVERAGE('2556'!F307:F336)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="38">
+        <f>AVERAGE('2556'!B337:B367)</f>
+        <v>37.292903225806455</v>
+      </c>
+      <c r="C13" s="19">
+        <f>AVERAGE('2556'!C337:C367)</f>
+        <v>39.74290322580643</v>
+      </c>
+      <c r="D13" s="19">
+        <f>AVERAGE('2556'!D337:D367)</f>
+        <v>34.792903225806462</v>
+      </c>
+      <c r="E13" s="19">
+        <f>AVERAGE('2556'!E337:E367)</f>
+        <v>23.776774193548373</v>
+      </c>
+      <c r="F13" s="39">
+        <f>AVERAGE('2556'!F337:F367)</f>
+        <v>29.990000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>